--- a/Document/API목록 관리.xlsx
+++ b/Document/API목록 관리.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mskim\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mskim\localgit\MSKrestAPI\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="277">
   <si>
     <t>버전</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1173,6 +1173,30 @@
   </si>
   <si>
     <t>일반 사용자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FORBIDDEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리소스에 액세스 할 수있는 권한이 없습니다. 액세스 권한이 필요하다면 관리자에게 문의해주세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNKNOWN_KEY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알 수 없는 API KEY입니다. API Key가 올바르게 입력이 되었는지 확인해주세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김민수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드 추가 (403, 2006)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1784,7 +1808,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1926,6 +1950,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1956,167 +1983,167 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2431,10 +2458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E5"/>
+  <dimension ref="B1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2453,12 +2480,12 @@
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="2:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="32" t="s">
@@ -2500,6 +2527,20 @@
       </c>
       <c r="E5" s="7" t="s">
         <v>266</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="37">
+        <v>43210</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -2514,9 +2555,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D42"/>
+  <dimension ref="B1:D44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:D26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2532,11 +2575,11 @@
       <c r="D1" s="3"/>
     </row>
     <row r="2" spans="2:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="48" t="s">
         <v>183</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="50"/>
     </row>
     <row r="3" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="32" t="s">
@@ -2550,11 +2593,11 @@
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="54" t="s">
         <v>188</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="56"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" s="6">
@@ -2634,11 +2677,11 @@
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="51" t="s">
         <v>189</v>
       </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="53"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" s="6">
@@ -2653,316 +2696,338 @@
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B14" s="6">
-        <v>404</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>198</v>
+        <v>403</v>
+      </c>
+      <c r="C14" s="47" t="s">
+        <v>271</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>238</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" s="6">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B16" s="6">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="6">
-        <v>500</v>
+        <v>415</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="6">
-        <v>2001</v>
+        <v>500</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="6">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" s="6">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C20" s="36" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" s="6">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" s="6">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" s="6">
-        <v>2999</v>
+        <v>2005</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="50" t="s">
-        <v>254</v>
-      </c>
-      <c r="C24" s="51"/>
-      <c r="D24" s="52"/>
+      <c r="B24" s="6">
+        <v>2006</v>
+      </c>
+      <c r="C24" s="47" t="s">
+        <v>273</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" s="6">
-        <v>3001</v>
+        <v>2999</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="6">
-        <v>3002</v>
-      </c>
-      <c r="C26" s="36" t="s">
-        <v>209</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>248</v>
-      </c>
+      <c r="B26" s="51" t="s">
+        <v>254</v>
+      </c>
+      <c r="C26" s="52"/>
+      <c r="D26" s="53"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B27" s="6">
-        <v>3003</v>
+        <v>3001</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B28" s="6">
-        <v>3004</v>
+        <v>3002</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B29" s="6">
-        <v>3005</v>
+        <v>3003</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B30" s="6">
-        <v>3006</v>
+        <v>3004</v>
       </c>
       <c r="C30" s="36" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B31" s="50" t="s">
-        <v>190</v>
-      </c>
-      <c r="C31" s="51"/>
-      <c r="D31" s="52"/>
+      <c r="B31" s="6">
+        <v>3005</v>
+      </c>
+      <c r="C31" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B32" s="6">
-        <v>4001</v>
+        <v>3006</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>81</v>
+        <v>213</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>222</v>
+        <v>252</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="6">
-        <v>4002</v>
-      </c>
-      <c r="C33" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>223</v>
-      </c>
+      <c r="B33" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="C33" s="52"/>
+      <c r="D33" s="53"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" s="6">
-        <v>4003</v>
+        <v>4001</v>
       </c>
       <c r="C34" s="36" t="s">
-        <v>215</v>
+        <v>81</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" s="50" t="s">
-        <v>255</v>
-      </c>
-      <c r="C35" s="51"/>
-      <c r="D35" s="52"/>
+      <c r="B35" s="6">
+        <v>4002</v>
+      </c>
+      <c r="C35" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B36" s="6">
-        <v>5001</v>
+        <v>4003</v>
       </c>
       <c r="C36" s="36" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B37" s="6">
-        <v>5002</v>
-      </c>
-      <c r="C37" s="36" t="s">
-        <v>217</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>226</v>
-      </c>
+      <c r="B37" s="51" t="s">
+        <v>255</v>
+      </c>
+      <c r="C37" s="52"/>
+      <c r="D37" s="53"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B38" s="6">
-        <v>5003</v>
+        <v>5001</v>
       </c>
       <c r="C38" s="36" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B39" s="6">
-        <v>5004</v>
+        <v>5002</v>
       </c>
       <c r="C39" s="36" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B40" s="6">
-        <v>5005</v>
+        <v>5003</v>
       </c>
       <c r="C40" s="36" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B41" s="50" t="s">
-        <v>256</v>
-      </c>
-      <c r="C41" s="51"/>
-      <c r="D41" s="52"/>
+      <c r="B41" s="6">
+        <v>5004</v>
+      </c>
+      <c r="C41" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B42" s="6">
+        <v>5005</v>
+      </c>
+      <c r="C42" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B43" s="51" t="s">
+        <v>256</v>
+      </c>
+      <c r="C43" s="52"/>
+      <c r="D43" s="53"/>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B44" s="6">
         <v>6001</v>
       </c>
-      <c r="C42" s="36" t="s">
+      <c r="C44" s="36" t="s">
         <v>221</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D44" s="7" t="s">
         <v>230</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B43:D43"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B37:D37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2999,16 +3064,16 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="2:9" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
     </row>
     <row r="3" spans="2:9" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="13"/>
@@ -3145,10 +3210,10 @@
       <c r="B2" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="87"/>
+      <c r="D2" s="77"/>
       <c r="E2" s="24" t="s">
         <v>37</v>
       </c>
@@ -3172,12 +3237,12 @@
       <c r="D3" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="100" t="s">
+      <c r="E3" s="99" t="s">
         <v>108</v>
       </c>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="101"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="100"/>
     </row>
     <row r="4" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="31" t="s">
@@ -3192,119 +3257,119 @@
       <c r="E4" s="40">
         <v>43202</v>
       </c>
-      <c r="F4" s="105"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="107"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="92"/>
     </row>
     <row r="5" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="86"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="80"/>
     </row>
     <row r="6" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="103"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="82"/>
     </row>
     <row r="7" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="92" t="s">
+      <c r="B7" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="104" t="s">
+      <c r="C7" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="73"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="85"/>
     </row>
     <row r="8" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="93"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="75"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="87"/>
     </row>
     <row r="9" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="85"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="86"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="80"/>
     </row>
     <row r="10" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="98" t="s">
+      <c r="B10" s="97" t="s">
         <v>43</v>
       </c>
       <c r="C10" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="94" t="s">
+      <c r="D10" s="93" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="95"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="94"/>
     </row>
     <row r="11" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="92"/>
+      <c r="B11" s="88"/>
       <c r="C11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="72" t="s">
+      <c r="D11" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="73"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="85"/>
     </row>
     <row r="12" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="99"/>
+      <c r="B12" s="98"/>
       <c r="C12" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="96" t="s">
+      <c r="D12" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="97"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="96"/>
     </row>
     <row r="13" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="76" t="s">
+      <c r="B14" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="85"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="86"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="80"/>
     </row>
     <row r="15" spans="2:8" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="21"/>
@@ -3319,103 +3384,103 @@
       <c r="B16" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="79" t="s">
+      <c r="C16" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="80"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="81"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="103"/>
     </row>
     <row r="17" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="69" t="s">
+      <c r="C17" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="71"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="73"/>
     </row>
     <row r="18" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="46" t="s">
         <v>267</v>
       </c>
-      <c r="C18" s="69" t="s">
+      <c r="C18" s="71" t="s">
         <v>269</v>
       </c>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="71"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="73"/>
     </row>
     <row r="19" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="72" t="s">
+      <c r="C19" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="72"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="73"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="85"/>
     </row>
     <row r="20" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="92" t="s">
+      <c r="B20" s="88" t="s">
         <v>51</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="72" t="s">
+      <c r="D20" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="73"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="85"/>
     </row>
     <row r="21" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="93"/>
+      <c r="B21" s="89"/>
       <c r="C21" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="74" t="s">
+      <c r="D21" s="86" t="s">
         <v>112</v>
       </c>
-      <c r="E21" s="74"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="74"/>
-      <c r="H21" s="75"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="87"/>
     </row>
     <row r="22" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="76" t="s">
+      <c r="B22" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="85"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="86"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="80"/>
     </row>
     <row r="23" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="61" t="s">
+      <c r="B23" s="104" t="s">
         <v>97</v>
       </c>
-      <c r="C23" s="62"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="63"/>
+      <c r="C23" s="105"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="105"/>
+      <c r="F23" s="105"/>
+      <c r="G23" s="105"/>
+      <c r="H23" s="106"/>
     </row>
     <row r="24" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="26" t="s">
@@ -3430,11 +3495,11 @@
       <c r="E24" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="F24" s="89" t="s">
+      <c r="F24" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="G24" s="90"/>
-      <c r="H24" s="91"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="70"/>
     </row>
     <row r="25" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="27" t="s">
@@ -3449,11 +3514,11 @@
       <c r="E25" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="F25" s="82" t="s">
+      <c r="F25" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="G25" s="83"/>
-      <c r="H25" s="84"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="76"/>
     </row>
     <row r="26" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="28" t="s">
@@ -3468,22 +3533,22 @@
       <c r="E26" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="F26" s="69" t="s">
+      <c r="F26" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="G26" s="70"/>
-      <c r="H26" s="71"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="73"/>
     </row>
     <row r="27" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="64" t="s">
+      <c r="B27" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="65"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="66"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="63"/>
     </row>
     <row r="28" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="26" t="s">
@@ -3495,12 +3560,12 @@
       <c r="D28" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="E28" s="67" t="s">
+      <c r="E28" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="F28" s="67"/>
-      <c r="G28" s="67"/>
-      <c r="H28" s="68"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="65"/>
     </row>
     <row r="29" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="27" t="s">
@@ -3512,12 +3577,12 @@
       <c r="D29" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="57" t="s">
+      <c r="E29" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="58"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="67"/>
     </row>
     <row r="30" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="27" t="s">
@@ -3529,12 +3594,12 @@
       <c r="D30" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="57" t="s">
+      <c r="E30" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="58"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="67"/>
     </row>
     <row r="31" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="29" t="s">
@@ -3546,65 +3611,65 @@
       <c r="D31" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E31" s="59" t="s">
+      <c r="E31" s="107" t="s">
         <v>75</v>
       </c>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="60"/>
+      <c r="F31" s="107"/>
+      <c r="G31" s="107"/>
+      <c r="H31" s="108"/>
     </row>
     <row r="32" spans="2:8" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="33" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="79" t="s">
+      <c r="C33" s="101" t="s">
         <v>62</v>
       </c>
-      <c r="D33" s="80"/>
-      <c r="E33" s="80"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="80"/>
-      <c r="H33" s="81"/>
+      <c r="D33" s="102"/>
+      <c r="E33" s="102"/>
+      <c r="F33" s="102"/>
+      <c r="G33" s="102"/>
+      <c r="H33" s="103"/>
     </row>
     <row r="34" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="69" t="s">
+      <c r="C34" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="D34" s="70"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="70"/>
-      <c r="H34" s="71"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="73"/>
     </row>
     <row r="35" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="46" t="s">
         <v>268</v>
       </c>
-      <c r="C35" s="69" t="s">
+      <c r="C35" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="70"/>
-      <c r="E35" s="70"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="70"/>
-      <c r="H35" s="71"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="73"/>
     </row>
     <row r="36" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="72" t="s">
+      <c r="C36" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="D36" s="72"/>
-      <c r="E36" s="72"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="73"/>
+      <c r="D36" s="84"/>
+      <c r="E36" s="84"/>
+      <c r="F36" s="84"/>
+      <c r="G36" s="84"/>
+      <c r="H36" s="85"/>
     </row>
     <row r="37" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="31" t="s">
@@ -3613,35 +3678,35 @@
       <c r="C37" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="D37" s="74" t="s">
+      <c r="D37" s="86" t="s">
         <v>173</v>
       </c>
-      <c r="E37" s="74"/>
-      <c r="F37" s="74"/>
-      <c r="G37" s="74"/>
-      <c r="H37" s="75"/>
+      <c r="E37" s="86"/>
+      <c r="F37" s="86"/>
+      <c r="G37" s="86"/>
+      <c r="H37" s="87"/>
     </row>
     <row r="38" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="76" t="s">
+      <c r="B38" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="85"/>
-      <c r="D38" s="85"/>
-      <c r="E38" s="85"/>
-      <c r="F38" s="85"/>
-      <c r="G38" s="85"/>
-      <c r="H38" s="86"/>
+      <c r="C38" s="79"/>
+      <c r="D38" s="79"/>
+      <c r="E38" s="79"/>
+      <c r="F38" s="79"/>
+      <c r="G38" s="79"/>
+      <c r="H38" s="80"/>
     </row>
     <row r="39" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="61" t="s">
+      <c r="B39" s="104" t="s">
         <v>97</v>
       </c>
-      <c r="C39" s="62"/>
-      <c r="D39" s="62"/>
-      <c r="E39" s="62"/>
-      <c r="F39" s="62"/>
-      <c r="G39" s="62"/>
-      <c r="H39" s="63"/>
+      <c r="C39" s="105"/>
+      <c r="D39" s="105"/>
+      <c r="E39" s="105"/>
+      <c r="F39" s="105"/>
+      <c r="G39" s="105"/>
+      <c r="H39" s="106"/>
     </row>
     <row r="40" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="26" t="s">
@@ -3656,11 +3721,11 @@
       <c r="E40" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="F40" s="89" t="s">
+      <c r="F40" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="G40" s="90"/>
-      <c r="H40" s="91"/>
+      <c r="G40" s="69"/>
+      <c r="H40" s="70"/>
     </row>
     <row r="41" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="27" t="s">
@@ -3675,11 +3740,11 @@
       <c r="E41" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="F41" s="82" t="s">
+      <c r="F41" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="G41" s="83"/>
-      <c r="H41" s="84"/>
+      <c r="G41" s="75"/>
+      <c r="H41" s="76"/>
     </row>
     <row r="42" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="28" t="s">
@@ -3694,22 +3759,22 @@
       <c r="E42" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="F42" s="69" t="s">
+      <c r="F42" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="G42" s="70"/>
-      <c r="H42" s="71"/>
+      <c r="G42" s="72"/>
+      <c r="H42" s="73"/>
     </row>
     <row r="43" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="64" t="s">
+      <c r="B43" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="C43" s="65"/>
-      <c r="D43" s="65"/>
-      <c r="E43" s="65"/>
-      <c r="F43" s="65"/>
-      <c r="G43" s="65"/>
-      <c r="H43" s="66"/>
+      <c r="C43" s="62"/>
+      <c r="D43" s="62"/>
+      <c r="E43" s="62"/>
+      <c r="F43" s="62"/>
+      <c r="G43" s="62"/>
+      <c r="H43" s="63"/>
     </row>
     <row r="44" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="26" t="s">
@@ -3721,12 +3786,12 @@
       <c r="D44" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="E44" s="67" t="s">
+      <c r="E44" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="F44" s="67"/>
-      <c r="G44" s="67"/>
-      <c r="H44" s="68"/>
+      <c r="F44" s="64"/>
+      <c r="G44" s="64"/>
+      <c r="H44" s="65"/>
     </row>
     <row r="45" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="27" t="s">
@@ -3738,12 +3803,12 @@
       <c r="D45" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E45" s="57" t="s">
+      <c r="E45" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="F45" s="57"/>
-      <c r="G45" s="57"/>
-      <c r="H45" s="58"/>
+      <c r="F45" s="66"/>
+      <c r="G45" s="66"/>
+      <c r="H45" s="67"/>
     </row>
     <row r="46" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="27" t="s">
@@ -3755,12 +3820,12 @@
       <c r="D46" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E46" s="57" t="s">
+      <c r="E46" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="F46" s="57"/>
-      <c r="G46" s="57"/>
-      <c r="H46" s="58"/>
+      <c r="F46" s="66"/>
+      <c r="G46" s="66"/>
+      <c r="H46" s="67"/>
     </row>
     <row r="47" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="29" t="s">
@@ -3772,65 +3837,65 @@
       <c r="D47" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E47" s="59" t="s">
+      <c r="E47" s="107" t="s">
         <v>75</v>
       </c>
-      <c r="F47" s="59"/>
-      <c r="G47" s="59"/>
-      <c r="H47" s="60"/>
+      <c r="F47" s="107"/>
+      <c r="G47" s="107"/>
+      <c r="H47" s="108"/>
     </row>
     <row r="48" spans="2:8" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="49" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C49" s="79" t="s">
+      <c r="C49" s="101" t="s">
         <v>59</v>
       </c>
-      <c r="D49" s="80"/>
-      <c r="E49" s="80"/>
-      <c r="F49" s="80"/>
-      <c r="G49" s="80"/>
-      <c r="H49" s="81"/>
+      <c r="D49" s="102"/>
+      <c r="E49" s="102"/>
+      <c r="F49" s="102"/>
+      <c r="G49" s="102"/>
+      <c r="H49" s="103"/>
     </row>
     <row r="50" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C50" s="69" t="s">
+      <c r="C50" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="D50" s="70"/>
-      <c r="E50" s="70"/>
-      <c r="F50" s="70"/>
-      <c r="G50" s="70"/>
-      <c r="H50" s="71"/>
+      <c r="D50" s="72"/>
+      <c r="E50" s="72"/>
+      <c r="F50" s="72"/>
+      <c r="G50" s="72"/>
+      <c r="H50" s="73"/>
     </row>
     <row r="51" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="46" t="s">
         <v>268</v>
       </c>
-      <c r="C51" s="69" t="s">
+      <c r="C51" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="D51" s="70"/>
-      <c r="E51" s="70"/>
-      <c r="F51" s="70"/>
-      <c r="G51" s="70"/>
-      <c r="H51" s="71"/>
+      <c r="D51" s="72"/>
+      <c r="E51" s="72"/>
+      <c r="F51" s="72"/>
+      <c r="G51" s="72"/>
+      <c r="H51" s="73"/>
     </row>
     <row r="52" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C52" s="72" t="s">
+      <c r="C52" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="D52" s="72"/>
-      <c r="E52" s="72"/>
-      <c r="F52" s="72"/>
-      <c r="G52" s="72"/>
-      <c r="H52" s="73"/>
+      <c r="D52" s="84"/>
+      <c r="E52" s="84"/>
+      <c r="F52" s="84"/>
+      <c r="G52" s="84"/>
+      <c r="H52" s="85"/>
     </row>
     <row r="53" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B53" s="31" t="s">
@@ -3839,35 +3904,35 @@
       <c r="C53" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="D53" s="74" t="s">
+      <c r="D53" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="E53" s="74"/>
-      <c r="F53" s="74"/>
-      <c r="G53" s="74"/>
-      <c r="H53" s="75"/>
+      <c r="E53" s="86"/>
+      <c r="F53" s="86"/>
+      <c r="G53" s="86"/>
+      <c r="H53" s="87"/>
     </row>
     <row r="54" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="76" t="s">
+      <c r="B54" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="C54" s="85"/>
-      <c r="D54" s="85"/>
-      <c r="E54" s="85"/>
-      <c r="F54" s="85"/>
-      <c r="G54" s="85"/>
-      <c r="H54" s="86"/>
+      <c r="C54" s="79"/>
+      <c r="D54" s="79"/>
+      <c r="E54" s="79"/>
+      <c r="F54" s="79"/>
+      <c r="G54" s="79"/>
+      <c r="H54" s="80"/>
     </row>
     <row r="55" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="61" t="s">
+      <c r="B55" s="104" t="s">
         <v>96</v>
       </c>
-      <c r="C55" s="62"/>
-      <c r="D55" s="62"/>
-      <c r="E55" s="62"/>
-      <c r="F55" s="62"/>
-      <c r="G55" s="62"/>
-      <c r="H55" s="63"/>
+      <c r="C55" s="105"/>
+      <c r="D55" s="105"/>
+      <c r="E55" s="105"/>
+      <c r="F55" s="105"/>
+      <c r="G55" s="105"/>
+      <c r="H55" s="106"/>
     </row>
     <row r="56" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="26" t="s">
@@ -3882,11 +3947,11 @@
       <c r="E56" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="F56" s="89" t="s">
+      <c r="F56" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="G56" s="90"/>
-      <c r="H56" s="91"/>
+      <c r="G56" s="69"/>
+      <c r="H56" s="70"/>
     </row>
     <row r="57" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="27" t="s">
@@ -3901,11 +3966,11 @@
       <c r="E57" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="F57" s="82" t="s">
+      <c r="F57" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="G57" s="83"/>
-      <c r="H57" s="84"/>
+      <c r="G57" s="75"/>
+      <c r="H57" s="76"/>
     </row>
     <row r="58" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="27" t="s">
@@ -3920,11 +3985,11 @@
       <c r="E58" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="F58" s="82" t="s">
+      <c r="F58" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="G58" s="83"/>
-      <c r="H58" s="84"/>
+      <c r="G58" s="75"/>
+      <c r="H58" s="76"/>
     </row>
     <row r="59" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="27" t="s">
@@ -3939,11 +4004,11 @@
       <c r="E59" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="F59" s="82" t="s">
+      <c r="F59" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="G59" s="83"/>
-      <c r="H59" s="84"/>
+      <c r="G59" s="75"/>
+      <c r="H59" s="76"/>
     </row>
     <row r="60" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="27" t="s">
@@ -3958,11 +4023,11 @@
       <c r="E60" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="F60" s="82" t="s">
+      <c r="F60" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="G60" s="83"/>
-      <c r="H60" s="84"/>
+      <c r="G60" s="75"/>
+      <c r="H60" s="76"/>
     </row>
     <row r="61" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="27" t="s">
@@ -3977,22 +4042,22 @@
       <c r="E61" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="F61" s="82" t="s">
+      <c r="F61" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="G61" s="83"/>
-      <c r="H61" s="84"/>
+      <c r="G61" s="75"/>
+      <c r="H61" s="76"/>
     </row>
     <row r="62" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="64" t="s">
+      <c r="B62" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="C62" s="65"/>
-      <c r="D62" s="65"/>
-      <c r="E62" s="65"/>
-      <c r="F62" s="65"/>
-      <c r="G62" s="65"/>
-      <c r="H62" s="66"/>
+      <c r="C62" s="62"/>
+      <c r="D62" s="62"/>
+      <c r="E62" s="62"/>
+      <c r="F62" s="62"/>
+      <c r="G62" s="62"/>
+      <c r="H62" s="63"/>
     </row>
     <row r="63" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="26" t="s">
@@ -4004,12 +4069,12 @@
       <c r="D63" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="E63" s="67" t="s">
+      <c r="E63" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="F63" s="67"/>
-      <c r="G63" s="67"/>
-      <c r="H63" s="68"/>
+      <c r="F63" s="64"/>
+      <c r="G63" s="64"/>
+      <c r="H63" s="65"/>
     </row>
     <row r="64" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="27" t="s">
@@ -4021,12 +4086,12 @@
       <c r="D64" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E64" s="57" t="s">
+      <c r="E64" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="F64" s="57"/>
-      <c r="G64" s="57"/>
-      <c r="H64" s="58"/>
+      <c r="F64" s="66"/>
+      <c r="G64" s="66"/>
+      <c r="H64" s="67"/>
     </row>
     <row r="65" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="27" t="s">
@@ -4038,12 +4103,12 @@
       <c r="D65" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E65" s="57" t="s">
+      <c r="E65" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="F65" s="57"/>
-      <c r="G65" s="57"/>
-      <c r="H65" s="58"/>
+      <c r="F65" s="66"/>
+      <c r="G65" s="66"/>
+      <c r="H65" s="67"/>
     </row>
     <row r="66" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="27" t="s">
@@ -4055,12 +4120,12 @@
       <c r="D66" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E66" s="57" t="s">
+      <c r="E66" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="F66" s="57"/>
-      <c r="G66" s="57"/>
-      <c r="H66" s="58"/>
+      <c r="F66" s="66"/>
+      <c r="G66" s="66"/>
+      <c r="H66" s="67"/>
     </row>
     <row r="67" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B67" s="29" t="s">
@@ -4072,65 +4137,65 @@
       <c r="D67" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E67" s="59" t="s">
+      <c r="E67" s="107" t="s">
         <v>105</v>
       </c>
-      <c r="F67" s="59"/>
-      <c r="G67" s="59"/>
-      <c r="H67" s="60"/>
+      <c r="F67" s="107"/>
+      <c r="G67" s="107"/>
+      <c r="H67" s="108"/>
     </row>
     <row r="68" spans="2:8" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="69" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C69" s="87" t="s">
+      <c r="C69" s="77" t="s">
         <v>76</v>
       </c>
-      <c r="D69" s="87"/>
-      <c r="E69" s="87"/>
-      <c r="F69" s="87"/>
-      <c r="G69" s="87"/>
-      <c r="H69" s="88"/>
+      <c r="D69" s="77"/>
+      <c r="E69" s="77"/>
+      <c r="F69" s="77"/>
+      <c r="G69" s="77"/>
+      <c r="H69" s="109"/>
     </row>
     <row r="70" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C70" s="72" t="s">
+      <c r="C70" s="84" t="s">
         <v>77</v>
       </c>
-      <c r="D70" s="72"/>
-      <c r="E70" s="72"/>
-      <c r="F70" s="72"/>
-      <c r="G70" s="72"/>
-      <c r="H70" s="73"/>
+      <c r="D70" s="84"/>
+      <c r="E70" s="84"/>
+      <c r="F70" s="84"/>
+      <c r="G70" s="84"/>
+      <c r="H70" s="85"/>
     </row>
     <row r="71" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="46" t="s">
         <v>268</v>
       </c>
-      <c r="C71" s="69" t="s">
+      <c r="C71" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="D71" s="70"/>
-      <c r="E71" s="70"/>
-      <c r="F71" s="70"/>
-      <c r="G71" s="70"/>
-      <c r="H71" s="71"/>
+      <c r="D71" s="72"/>
+      <c r="E71" s="72"/>
+      <c r="F71" s="72"/>
+      <c r="G71" s="72"/>
+      <c r="H71" s="73"/>
     </row>
     <row r="72" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C72" s="72" t="s">
+      <c r="C72" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="D72" s="72"/>
-      <c r="E72" s="72"/>
-      <c r="F72" s="72"/>
-      <c r="G72" s="72"/>
-      <c r="H72" s="73"/>
+      <c r="D72" s="84"/>
+      <c r="E72" s="84"/>
+      <c r="F72" s="84"/>
+      <c r="G72" s="84"/>
+      <c r="H72" s="85"/>
     </row>
     <row r="73" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B73" s="31" t="s">
@@ -4139,35 +4204,35 @@
       <c r="C73" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="D73" s="74" t="s">
+      <c r="D73" s="86" t="s">
         <v>89</v>
       </c>
-      <c r="E73" s="74"/>
-      <c r="F73" s="74"/>
-      <c r="G73" s="74"/>
-      <c r="H73" s="75"/>
+      <c r="E73" s="86"/>
+      <c r="F73" s="86"/>
+      <c r="G73" s="86"/>
+      <c r="H73" s="87"/>
     </row>
     <row r="74" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="76" t="s">
+      <c r="B74" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="C74" s="85"/>
-      <c r="D74" s="85"/>
-      <c r="E74" s="85"/>
-      <c r="F74" s="85"/>
-      <c r="G74" s="85"/>
-      <c r="H74" s="86"/>
+      <c r="C74" s="79"/>
+      <c r="D74" s="79"/>
+      <c r="E74" s="79"/>
+      <c r="F74" s="79"/>
+      <c r="G74" s="79"/>
+      <c r="H74" s="80"/>
     </row>
     <row r="75" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="108" t="s">
+      <c r="B75" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="C75" s="109"/>
-      <c r="D75" s="109"/>
-      <c r="E75" s="109"/>
-      <c r="F75" s="109"/>
-      <c r="G75" s="109"/>
-      <c r="H75" s="110"/>
+      <c r="C75" s="59"/>
+      <c r="D75" s="59"/>
+      <c r="E75" s="59"/>
+      <c r="F75" s="59"/>
+      <c r="G75" s="59"/>
+      <c r="H75" s="60"/>
     </row>
     <row r="76" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B76" s="26" t="s">
@@ -4182,11 +4247,11 @@
       <c r="E76" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="F76" s="89" t="s">
+      <c r="F76" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="G76" s="90"/>
-      <c r="H76" s="91"/>
+      <c r="G76" s="69"/>
+      <c r="H76" s="70"/>
     </row>
     <row r="77" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B77" s="27" t="s">
@@ -4201,11 +4266,11 @@
       <c r="E77" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="F77" s="82" t="s">
+      <c r="F77" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="G77" s="83"/>
-      <c r="H77" s="84"/>
+      <c r="G77" s="75"/>
+      <c r="H77" s="76"/>
     </row>
     <row r="78" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B78" s="27" t="s">
@@ -4220,11 +4285,11 @@
       <c r="E78" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="F78" s="82" t="s">
+      <c r="F78" s="74" t="s">
         <v>263</v>
       </c>
-      <c r="G78" s="83"/>
-      <c r="H78" s="84"/>
+      <c r="G78" s="75"/>
+      <c r="H78" s="76"/>
     </row>
     <row r="79" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="27" t="s">
@@ -4239,11 +4304,11 @@
       <c r="E79" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="F79" s="82" t="s">
+      <c r="F79" s="74" t="s">
         <v>264</v>
       </c>
-      <c r="G79" s="83"/>
-      <c r="H79" s="84"/>
+      <c r="G79" s="75"/>
+      <c r="H79" s="76"/>
     </row>
     <row r="80" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80" s="27" t="s">
@@ -4258,11 +4323,11 @@
       <c r="E80" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="F80" s="82" t="s">
+      <c r="F80" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="G80" s="83"/>
-      <c r="H80" s="84"/>
+      <c r="G80" s="75"/>
+      <c r="H80" s="76"/>
     </row>
     <row r="81" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B81" s="27" t="s">
@@ -4277,11 +4342,11 @@
       <c r="E81" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="F81" s="82" t="s">
+      <c r="F81" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="G81" s="83"/>
-      <c r="H81" s="84"/>
+      <c r="G81" s="75"/>
+      <c r="H81" s="76"/>
     </row>
     <row r="82" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B82" s="27" t="s">
@@ -4296,22 +4361,22 @@
       <c r="E82" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="F82" s="82" t="s">
+      <c r="F82" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="G82" s="83"/>
-      <c r="H82" s="84"/>
+      <c r="G82" s="75"/>
+      <c r="H82" s="76"/>
     </row>
     <row r="83" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="64" t="s">
+      <c r="B83" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="C83" s="65"/>
-      <c r="D83" s="65"/>
-      <c r="E83" s="65"/>
-      <c r="F83" s="65"/>
-      <c r="G83" s="65"/>
-      <c r="H83" s="66"/>
+      <c r="C83" s="62"/>
+      <c r="D83" s="62"/>
+      <c r="E83" s="62"/>
+      <c r="F83" s="62"/>
+      <c r="G83" s="62"/>
+      <c r="H83" s="63"/>
     </row>
     <row r="84" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="26" t="s">
@@ -4323,12 +4388,12 @@
       <c r="D84" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="E84" s="67" t="s">
+      <c r="E84" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="F84" s="67"/>
-      <c r="G84" s="67"/>
-      <c r="H84" s="68"/>
+      <c r="F84" s="64"/>
+      <c r="G84" s="64"/>
+      <c r="H84" s="65"/>
     </row>
     <row r="85" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B85" s="27" t="s">
@@ -4340,12 +4405,12 @@
       <c r="D85" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E85" s="57" t="s">
+      <c r="E85" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="F85" s="57"/>
-      <c r="G85" s="57"/>
-      <c r="H85" s="58"/>
+      <c r="F85" s="66"/>
+      <c r="G85" s="66"/>
+      <c r="H85" s="67"/>
     </row>
     <row r="86" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B86" s="27" t="s">
@@ -4357,12 +4422,12 @@
       <c r="D86" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E86" s="57" t="s">
+      <c r="E86" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="F86" s="57"/>
-      <c r="G86" s="57"/>
-      <c r="H86" s="58"/>
+      <c r="F86" s="66"/>
+      <c r="G86" s="66"/>
+      <c r="H86" s="67"/>
     </row>
     <row r="87" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B87" s="27" t="s">
@@ -4374,12 +4439,12 @@
       <c r="D87" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E87" s="57" t="s">
+      <c r="E87" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="F87" s="57"/>
-      <c r="G87" s="57"/>
-      <c r="H87" s="58"/>
+      <c r="F87" s="66"/>
+      <c r="G87" s="66"/>
+      <c r="H87" s="67"/>
     </row>
     <row r="88" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B88" s="29" t="s">
@@ -4391,65 +4456,65 @@
       <c r="D88" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E88" s="59" t="s">
+      <c r="E88" s="107" t="s">
         <v>105</v>
       </c>
-      <c r="F88" s="59"/>
-      <c r="G88" s="59"/>
-      <c r="H88" s="60"/>
+      <c r="F88" s="107"/>
+      <c r="G88" s="107"/>
+      <c r="H88" s="108"/>
     </row>
     <row r="89" spans="2:8" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="90" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B90" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C90" s="79" t="s">
+      <c r="C90" s="101" t="s">
         <v>81</v>
       </c>
-      <c r="D90" s="80"/>
-      <c r="E90" s="80"/>
-      <c r="F90" s="80"/>
-      <c r="G90" s="80"/>
-      <c r="H90" s="81"/>
+      <c r="D90" s="102"/>
+      <c r="E90" s="102"/>
+      <c r="F90" s="102"/>
+      <c r="G90" s="102"/>
+      <c r="H90" s="103"/>
     </row>
     <row r="91" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B91" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C91" s="69" t="s">
+      <c r="C91" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="D91" s="70"/>
-      <c r="E91" s="70"/>
-      <c r="F91" s="70"/>
-      <c r="G91" s="70"/>
-      <c r="H91" s="71"/>
+      <c r="D91" s="72"/>
+      <c r="E91" s="72"/>
+      <c r="F91" s="72"/>
+      <c r="G91" s="72"/>
+      <c r="H91" s="73"/>
     </row>
     <row r="92" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B92" s="46" t="s">
         <v>268</v>
       </c>
-      <c r="C92" s="69" t="s">
+      <c r="C92" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="D92" s="70"/>
-      <c r="E92" s="70"/>
-      <c r="F92" s="70"/>
-      <c r="G92" s="70"/>
-      <c r="H92" s="71"/>
+      <c r="D92" s="72"/>
+      <c r="E92" s="72"/>
+      <c r="F92" s="72"/>
+      <c r="G92" s="72"/>
+      <c r="H92" s="73"/>
     </row>
     <row r="93" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B93" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C93" s="72" t="s">
+      <c r="C93" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="D93" s="72"/>
-      <c r="E93" s="72"/>
-      <c r="F93" s="72"/>
-      <c r="G93" s="72"/>
-      <c r="H93" s="73"/>
+      <c r="D93" s="84"/>
+      <c r="E93" s="84"/>
+      <c r="F93" s="84"/>
+      <c r="G93" s="84"/>
+      <c r="H93" s="85"/>
     </row>
     <row r="94" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B94" s="31" t="s">
@@ -4458,35 +4523,35 @@
       <c r="C94" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="D94" s="74" t="s">
+      <c r="D94" s="86" t="s">
         <v>172</v>
       </c>
-      <c r="E94" s="74"/>
-      <c r="F94" s="74"/>
-      <c r="G94" s="74"/>
-      <c r="H94" s="75"/>
+      <c r="E94" s="86"/>
+      <c r="F94" s="86"/>
+      <c r="G94" s="86"/>
+      <c r="H94" s="87"/>
     </row>
     <row r="95" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B95" s="76" t="s">
+      <c r="B95" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="C95" s="77"/>
-      <c r="D95" s="77"/>
-      <c r="E95" s="77"/>
-      <c r="F95" s="77"/>
-      <c r="G95" s="77"/>
-      <c r="H95" s="78"/>
+      <c r="C95" s="110"/>
+      <c r="D95" s="110"/>
+      <c r="E95" s="110"/>
+      <c r="F95" s="110"/>
+      <c r="G95" s="110"/>
+      <c r="H95" s="111"/>
     </row>
     <row r="96" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="61" t="s">
+      <c r="B96" s="104" t="s">
         <v>96</v>
       </c>
-      <c r="C96" s="62"/>
-      <c r="D96" s="62"/>
-      <c r="E96" s="62"/>
-      <c r="F96" s="62"/>
-      <c r="G96" s="62"/>
-      <c r="H96" s="63"/>
+      <c r="C96" s="105"/>
+      <c r="D96" s="105"/>
+      <c r="E96" s="105"/>
+      <c r="F96" s="105"/>
+      <c r="G96" s="105"/>
+      <c r="H96" s="106"/>
     </row>
     <row r="97" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B97" s="26" t="s">
@@ -4501,11 +4566,11 @@
       <c r="E97" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="F97" s="89" t="s">
+      <c r="F97" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="G97" s="90"/>
-      <c r="H97" s="91"/>
+      <c r="G97" s="69"/>
+      <c r="H97" s="70"/>
     </row>
     <row r="98" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="27" t="s">
@@ -4520,11 +4585,11 @@
       <c r="E98" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="F98" s="82" t="s">
+      <c r="F98" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="G98" s="83"/>
-      <c r="H98" s="84"/>
+      <c r="G98" s="75"/>
+      <c r="H98" s="76"/>
     </row>
     <row r="99" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B99" s="28" t="s">
@@ -4539,22 +4604,22 @@
       <c r="E99" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="F99" s="69" t="s">
+      <c r="F99" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="G99" s="70"/>
-      <c r="H99" s="71"/>
+      <c r="G99" s="72"/>
+      <c r="H99" s="73"/>
     </row>
     <row r="100" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="64" t="s">
+      <c r="B100" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="C100" s="65"/>
-      <c r="D100" s="65"/>
-      <c r="E100" s="65"/>
-      <c r="F100" s="65"/>
-      <c r="G100" s="65"/>
-      <c r="H100" s="66"/>
+      <c r="C100" s="62"/>
+      <c r="D100" s="62"/>
+      <c r="E100" s="62"/>
+      <c r="F100" s="62"/>
+      <c r="G100" s="62"/>
+      <c r="H100" s="63"/>
     </row>
     <row r="101" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B101" s="26" t="s">
@@ -4566,12 +4631,12 @@
       <c r="D101" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="E101" s="67" t="s">
+      <c r="E101" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="F101" s="67"/>
-      <c r="G101" s="67"/>
-      <c r="H101" s="68"/>
+      <c r="F101" s="64"/>
+      <c r="G101" s="64"/>
+      <c r="H101" s="65"/>
     </row>
     <row r="102" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B102" s="27" t="s">
@@ -4583,12 +4648,12 @@
       <c r="D102" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E102" s="57" t="s">
+      <c r="E102" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="F102" s="57"/>
-      <c r="G102" s="57"/>
-      <c r="H102" s="58"/>
+      <c r="F102" s="66"/>
+      <c r="G102" s="66"/>
+      <c r="H102" s="67"/>
     </row>
     <row r="103" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B103" s="27" t="s">
@@ -4600,12 +4665,12 @@
       <c r="D103" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E103" s="57" t="s">
+      <c r="E103" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="F103" s="57"/>
-      <c r="G103" s="57"/>
-      <c r="H103" s="58"/>
+      <c r="F103" s="66"/>
+      <c r="G103" s="66"/>
+      <c r="H103" s="67"/>
     </row>
     <row r="104" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B104" s="27" t="s">
@@ -4617,12 +4682,12 @@
       <c r="D104" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E104" s="57" t="s">
+      <c r="E104" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="F104" s="57"/>
-      <c r="G104" s="57"/>
-      <c r="H104" s="58"/>
+      <c r="F104" s="66"/>
+      <c r="G104" s="66"/>
+      <c r="H104" s="67"/>
     </row>
     <row r="105" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B105" s="29" t="s">
@@ -4634,99 +4699,15 @@
       <c r="D105" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E105" s="59" t="s">
+      <c r="E105" s="107" t="s">
         <v>105</v>
       </c>
-      <c r="F105" s="59"/>
-      <c r="G105" s="59"/>
-      <c r="H105" s="60"/>
+      <c r="F105" s="107"/>
+      <c r="G105" s="107"/>
+      <c r="H105" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="100">
-    <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B83:H83"/>
-    <mergeCell ref="E84:H84"/>
-    <mergeCell ref="E85:H85"/>
-    <mergeCell ref="F97:H97"/>
-    <mergeCell ref="C92:H92"/>
-    <mergeCell ref="F98:H98"/>
-    <mergeCell ref="F76:H76"/>
-    <mergeCell ref="F82:H82"/>
-    <mergeCell ref="F81:H81"/>
-    <mergeCell ref="F80:H80"/>
-    <mergeCell ref="F77:H77"/>
-    <mergeCell ref="F78:H78"/>
-    <mergeCell ref="F79:H79"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="C34:H34"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="D37:H37"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="C35:H35"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="C52:H52"/>
-    <mergeCell ref="B43:H43"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="E44:H44"/>
-    <mergeCell ref="E45:H45"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="E47:H47"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="F56:H56"/>
-    <mergeCell ref="F57:H57"/>
-    <mergeCell ref="D53:H53"/>
-    <mergeCell ref="B54:H54"/>
-    <mergeCell ref="F58:H58"/>
-    <mergeCell ref="B55:H55"/>
-    <mergeCell ref="F59:H59"/>
-    <mergeCell ref="D73:H73"/>
-    <mergeCell ref="B74:H74"/>
-    <mergeCell ref="B62:H62"/>
-    <mergeCell ref="E63:H63"/>
-    <mergeCell ref="E64:H64"/>
-    <mergeCell ref="E65:H65"/>
-    <mergeCell ref="E66:H66"/>
-    <mergeCell ref="E67:H67"/>
-    <mergeCell ref="C69:H69"/>
-    <mergeCell ref="C70:H70"/>
-    <mergeCell ref="C72:H72"/>
-    <mergeCell ref="F60:H60"/>
-    <mergeCell ref="F61:H61"/>
-    <mergeCell ref="C71:H71"/>
     <mergeCell ref="E102:H102"/>
     <mergeCell ref="E103:H103"/>
     <mergeCell ref="E104:H104"/>
@@ -4743,6 +4724,90 @@
     <mergeCell ref="B95:H95"/>
     <mergeCell ref="F99:H99"/>
     <mergeCell ref="C90:H90"/>
+    <mergeCell ref="F59:H59"/>
+    <mergeCell ref="D73:H73"/>
+    <mergeCell ref="B74:H74"/>
+    <mergeCell ref="B62:H62"/>
+    <mergeCell ref="E63:H63"/>
+    <mergeCell ref="E64:H64"/>
+    <mergeCell ref="E65:H65"/>
+    <mergeCell ref="E66:H66"/>
+    <mergeCell ref="E67:H67"/>
+    <mergeCell ref="C69:H69"/>
+    <mergeCell ref="C70:H70"/>
+    <mergeCell ref="C72:H72"/>
+    <mergeCell ref="F60:H60"/>
+    <mergeCell ref="F61:H61"/>
+    <mergeCell ref="C71:H71"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="F57:H57"/>
+    <mergeCell ref="D53:H53"/>
+    <mergeCell ref="B54:H54"/>
+    <mergeCell ref="F58:H58"/>
+    <mergeCell ref="B55:H55"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="C52:H52"/>
+    <mergeCell ref="B43:H43"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="E47:H47"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="D37:H37"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="C35:H35"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="F98:H98"/>
+    <mergeCell ref="F76:H76"/>
+    <mergeCell ref="F82:H82"/>
+    <mergeCell ref="F81:H81"/>
+    <mergeCell ref="F80:H80"/>
+    <mergeCell ref="F77:H77"/>
+    <mergeCell ref="F78:H78"/>
+    <mergeCell ref="F79:H79"/>
+    <mergeCell ref="B75:H75"/>
+    <mergeCell ref="B83:H83"/>
+    <mergeCell ref="E84:H84"/>
+    <mergeCell ref="E85:H85"/>
+    <mergeCell ref="F97:H97"/>
+    <mergeCell ref="C92:H92"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4770,10 +4835,10 @@
       <c r="B2" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="77" t="s">
         <v>142</v>
       </c>
-      <c r="D2" s="87"/>
+      <c r="D2" s="77"/>
       <c r="E2" s="24" t="s">
         <v>37</v>
       </c>
@@ -4797,12 +4862,12 @@
       <c r="D3" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="100" t="s">
+      <c r="E3" s="99" t="s">
         <v>108</v>
       </c>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="101"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="100"/>
     </row>
     <row r="4" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="31" t="s">
@@ -4817,119 +4882,119 @@
       <c r="E4" s="40">
         <v>43202</v>
       </c>
-      <c r="F4" s="105"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="107"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="92"/>
     </row>
     <row r="5" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="86"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="80"/>
     </row>
     <row r="6" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B6" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="81" t="s">
         <v>114</v>
       </c>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="103"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="82"/>
     </row>
     <row r="7" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="92" t="s">
+      <c r="B7" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="104" t="s">
+      <c r="C7" s="83" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="73"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="85"/>
     </row>
     <row r="8" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="93"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="75"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="87"/>
     </row>
     <row r="9" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="85"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="86"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="80"/>
     </row>
     <row r="10" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B10" s="98" t="s">
+      <c r="B10" s="97" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="94" t="s">
+      <c r="D10" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="95"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="94"/>
     </row>
     <row r="11" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B11" s="92"/>
+      <c r="B11" s="88"/>
       <c r="C11" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="72" t="s">
+      <c r="D11" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="73"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="85"/>
     </row>
     <row r="12" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="99"/>
+      <c r="B12" s="98"/>
       <c r="C12" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="96" t="s">
+      <c r="D12" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="97"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="96"/>
     </row>
     <row r="13" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="76" t="s">
+      <c r="B14" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="85"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="86"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="80"/>
     </row>
     <row r="15" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="21"/>
@@ -4944,53 +5009,53 @@
       <c r="B16" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="79" t="s">
+      <c r="C16" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="80"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="81"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="103"/>
     </row>
     <row r="17" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="69" t="s">
+      <c r="C17" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="71"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="73"/>
     </row>
     <row r="18" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="46" t="s">
         <v>267</v>
       </c>
-      <c r="C18" s="69" t="s">
+      <c r="C18" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="71"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="73"/>
     </row>
     <row r="19" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="72" t="s">
+      <c r="C19" s="84" t="s">
         <v>116</v>
       </c>
-      <c r="D19" s="72"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="73"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="85"/>
     </row>
     <row r="20" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="31" t="s">
@@ -4999,35 +5064,35 @@
       <c r="C20" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="74" t="s">
+      <c r="D20" s="86" t="s">
         <v>118</v>
       </c>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="75"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="87"/>
     </row>
     <row r="21" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="76" t="s">
+      <c r="B21" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="85"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="85"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="86"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="80"/>
     </row>
     <row r="22" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="111" t="s">
+      <c r="B22" s="112" t="s">
         <v>96</v>
       </c>
-      <c r="C22" s="112"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="112"/>
-      <c r="G22" s="112"/>
-      <c r="H22" s="113"/>
+      <c r="C22" s="113"/>
+      <c r="D22" s="113"/>
+      <c r="E22" s="113"/>
+      <c r="F22" s="113"/>
+      <c r="G22" s="113"/>
+      <c r="H22" s="114"/>
     </row>
     <row r="23" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="35" t="s">
@@ -5042,11 +5107,11 @@
       <c r="E23" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="F23" s="89" t="s">
+      <c r="F23" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="G23" s="90"/>
-      <c r="H23" s="91"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="70"/>
     </row>
     <row r="24" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="27" t="s">
@@ -5061,22 +5126,22 @@
       <c r="E24" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="F24" s="82" t="s">
+      <c r="F24" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="G24" s="83"/>
-      <c r="H24" s="84"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="76"/>
     </row>
     <row r="25" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="64" t="s">
+      <c r="B25" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="66"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="63"/>
     </row>
     <row r="26" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="35" t="s">
@@ -5088,12 +5153,12 @@
       <c r="D26" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="E26" s="67" t="s">
+      <c r="E26" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="68"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="65"/>
     </row>
     <row r="27" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="27" t="s">
@@ -5105,12 +5170,12 @@
       <c r="D27" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="57" t="s">
+      <c r="E27" s="66" t="s">
         <v>134</v>
       </c>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="58"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="67"/>
     </row>
     <row r="28" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="27" t="s">
@@ -5122,12 +5187,12 @@
       <c r="D28" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="57" t="s">
+      <c r="E28" s="66" t="s">
         <v>129</v>
       </c>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="58"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="67"/>
     </row>
     <row r="29" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="27" t="s">
@@ -5139,12 +5204,12 @@
       <c r="D29" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="57" t="s">
+      <c r="E29" s="66" t="s">
         <v>130</v>
       </c>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="58"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="67"/>
     </row>
     <row r="30" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="27" t="s">
@@ -5156,12 +5221,12 @@
       <c r="D30" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="57" t="s">
+      <c r="E30" s="66" t="s">
         <v>131</v>
       </c>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="58"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="67"/>
     </row>
     <row r="31" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="29" t="s">
@@ -5173,65 +5238,65 @@
       <c r="D31" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E31" s="59" t="s">
+      <c r="E31" s="107" t="s">
         <v>132</v>
       </c>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="60"/>
+      <c r="F31" s="107"/>
+      <c r="G31" s="107"/>
+      <c r="H31" s="108"/>
     </row>
     <row r="32" spans="2:8" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="33" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="79" t="s">
+      <c r="C33" s="101" t="s">
         <v>62</v>
       </c>
-      <c r="D33" s="80"/>
-      <c r="E33" s="80"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="80"/>
-      <c r="H33" s="81"/>
+      <c r="D33" s="102"/>
+      <c r="E33" s="102"/>
+      <c r="F33" s="102"/>
+      <c r="G33" s="102"/>
+      <c r="H33" s="103"/>
     </row>
     <row r="34" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B34" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="69" t="s">
+      <c r="C34" s="71" t="s">
         <v>133</v>
       </c>
-      <c r="D34" s="70"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="70"/>
-      <c r="H34" s="71"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="73"/>
     </row>
     <row r="35" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="46" t="s">
         <v>267</v>
       </c>
-      <c r="C35" s="69" t="s">
+      <c r="C35" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="70"/>
-      <c r="E35" s="70"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="70"/>
-      <c r="H35" s="71"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="73"/>
     </row>
     <row r="36" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B36" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="72" t="s">
+      <c r="C36" s="84" t="s">
         <v>138</v>
       </c>
-      <c r="D36" s="72"/>
-      <c r="E36" s="72"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="73"/>
+      <c r="D36" s="84"/>
+      <c r="E36" s="84"/>
+      <c r="F36" s="84"/>
+      <c r="G36" s="84"/>
+      <c r="H36" s="85"/>
     </row>
     <row r="37" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="31" t="s">
@@ -5240,35 +5305,35 @@
       <c r="C37" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="D37" s="74" t="s">
+      <c r="D37" s="86" t="s">
         <v>168</v>
       </c>
-      <c r="E37" s="74"/>
-      <c r="F37" s="74"/>
-      <c r="G37" s="74"/>
-      <c r="H37" s="75"/>
+      <c r="E37" s="86"/>
+      <c r="F37" s="86"/>
+      <c r="G37" s="86"/>
+      <c r="H37" s="87"/>
     </row>
     <row r="38" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="76" t="s">
+      <c r="B38" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="85"/>
-      <c r="D38" s="85"/>
-      <c r="E38" s="85"/>
-      <c r="F38" s="85"/>
-      <c r="G38" s="85"/>
-      <c r="H38" s="86"/>
+      <c r="C38" s="79"/>
+      <c r="D38" s="79"/>
+      <c r="E38" s="79"/>
+      <c r="F38" s="79"/>
+      <c r="G38" s="79"/>
+      <c r="H38" s="80"/>
     </row>
     <row r="39" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B39" s="61" t="s">
+      <c r="B39" s="104" t="s">
         <v>96</v>
       </c>
-      <c r="C39" s="62"/>
-      <c r="D39" s="62"/>
-      <c r="E39" s="62"/>
-      <c r="F39" s="62"/>
-      <c r="G39" s="62"/>
-      <c r="H39" s="63"/>
+      <c r="C39" s="105"/>
+      <c r="D39" s="105"/>
+      <c r="E39" s="105"/>
+      <c r="F39" s="105"/>
+      <c r="G39" s="105"/>
+      <c r="H39" s="106"/>
     </row>
     <row r="40" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B40" s="35" t="s">
@@ -5283,11 +5348,11 @@
       <c r="E40" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="F40" s="89" t="s">
+      <c r="F40" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="G40" s="90"/>
-      <c r="H40" s="91"/>
+      <c r="G40" s="69"/>
+      <c r="H40" s="70"/>
     </row>
     <row r="41" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="27" t="s">
@@ -5302,11 +5367,11 @@
       <c r="E41" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="F41" s="82" t="s">
+      <c r="F41" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="G41" s="83"/>
-      <c r="H41" s="84"/>
+      <c r="G41" s="75"/>
+      <c r="H41" s="76"/>
     </row>
     <row r="42" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B42" s="28" t="s">
@@ -5321,22 +5386,22 @@
       <c r="E42" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="F42" s="69" t="s">
+      <c r="F42" s="71" t="s">
         <v>135</v>
       </c>
-      <c r="G42" s="70"/>
-      <c r="H42" s="71"/>
+      <c r="G42" s="72"/>
+      <c r="H42" s="73"/>
     </row>
     <row r="43" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B43" s="64" t="s">
+      <c r="B43" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="C43" s="65"/>
-      <c r="D43" s="65"/>
-      <c r="E43" s="65"/>
-      <c r="F43" s="65"/>
-      <c r="G43" s="65"/>
-      <c r="H43" s="66"/>
+      <c r="C43" s="62"/>
+      <c r="D43" s="62"/>
+      <c r="E43" s="62"/>
+      <c r="F43" s="62"/>
+      <c r="G43" s="62"/>
+      <c r="H43" s="63"/>
     </row>
     <row r="44" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B44" s="35" t="s">
@@ -5348,12 +5413,12 @@
       <c r="D44" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="E44" s="67" t="s">
+      <c r="E44" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="F44" s="67"/>
-      <c r="G44" s="67"/>
-      <c r="H44" s="68"/>
+      <c r="F44" s="64"/>
+      <c r="G44" s="64"/>
+      <c r="H44" s="65"/>
     </row>
     <row r="45" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="27" t="s">
@@ -5365,12 +5430,12 @@
       <c r="D45" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E45" s="57" t="s">
+      <c r="E45" s="66" t="s">
         <v>134</v>
       </c>
-      <c r="F45" s="57"/>
-      <c r="G45" s="57"/>
-      <c r="H45" s="58"/>
+      <c r="F45" s="66"/>
+      <c r="G45" s="66"/>
+      <c r="H45" s="67"/>
     </row>
     <row r="46" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="27" t="s">
@@ -5382,12 +5447,12 @@
       <c r="D46" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E46" s="57" t="s">
+      <c r="E46" s="66" t="s">
         <v>129</v>
       </c>
-      <c r="F46" s="57"/>
-      <c r="G46" s="57"/>
-      <c r="H46" s="58"/>
+      <c r="F46" s="66"/>
+      <c r="G46" s="66"/>
+      <c r="H46" s="67"/>
     </row>
     <row r="47" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="27" t="s">
@@ -5399,12 +5464,12 @@
       <c r="D47" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E47" s="57" t="s">
+      <c r="E47" s="66" t="s">
         <v>130</v>
       </c>
-      <c r="F47" s="57"/>
-      <c r="G47" s="57"/>
-      <c r="H47" s="58"/>
+      <c r="F47" s="66"/>
+      <c r="G47" s="66"/>
+      <c r="H47" s="67"/>
     </row>
     <row r="48" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="27" t="s">
@@ -5416,12 +5481,12 @@
       <c r="D48" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E48" s="57" t="s">
+      <c r="E48" s="66" t="s">
         <v>131</v>
       </c>
-      <c r="F48" s="57"/>
-      <c r="G48" s="57"/>
-      <c r="H48" s="58"/>
+      <c r="F48" s="66"/>
+      <c r="G48" s="66"/>
+      <c r="H48" s="67"/>
     </row>
     <row r="49" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B49" s="29" t="s">
@@ -5433,65 +5498,65 @@
       <c r="D49" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E49" s="59" t="s">
+      <c r="E49" s="107" t="s">
         <v>132</v>
       </c>
-      <c r="F49" s="59"/>
-      <c r="G49" s="59"/>
-      <c r="H49" s="60"/>
+      <c r="F49" s="107"/>
+      <c r="G49" s="107"/>
+      <c r="H49" s="108"/>
     </row>
     <row r="50" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="51" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B51" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C51" s="79" t="s">
+      <c r="C51" s="101" t="s">
         <v>59</v>
       </c>
-      <c r="D51" s="80"/>
-      <c r="E51" s="80"/>
-      <c r="F51" s="80"/>
-      <c r="G51" s="80"/>
-      <c r="H51" s="81"/>
+      <c r="D51" s="102"/>
+      <c r="E51" s="102"/>
+      <c r="F51" s="102"/>
+      <c r="G51" s="102"/>
+      <c r="H51" s="103"/>
     </row>
     <row r="52" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B52" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C52" s="69" t="s">
+      <c r="C52" s="71" t="s">
         <v>136</v>
       </c>
-      <c r="D52" s="70"/>
-      <c r="E52" s="70"/>
-      <c r="F52" s="70"/>
-      <c r="G52" s="70"/>
-      <c r="H52" s="71"/>
+      <c r="D52" s="72"/>
+      <c r="E52" s="72"/>
+      <c r="F52" s="72"/>
+      <c r="G52" s="72"/>
+      <c r="H52" s="73"/>
     </row>
     <row r="53" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="46" t="s">
         <v>267</v>
       </c>
-      <c r="C53" s="69" t="s">
+      <c r="C53" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="D53" s="70"/>
-      <c r="E53" s="70"/>
-      <c r="F53" s="70"/>
-      <c r="G53" s="70"/>
-      <c r="H53" s="71"/>
+      <c r="D53" s="72"/>
+      <c r="E53" s="72"/>
+      <c r="F53" s="72"/>
+      <c r="G53" s="72"/>
+      <c r="H53" s="73"/>
     </row>
     <row r="54" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B54" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C54" s="72" t="s">
+      <c r="C54" s="84" t="s">
         <v>116</v>
       </c>
-      <c r="D54" s="72"/>
-      <c r="E54" s="72"/>
-      <c r="F54" s="72"/>
-      <c r="G54" s="72"/>
-      <c r="H54" s="73"/>
+      <c r="D54" s="84"/>
+      <c r="E54" s="84"/>
+      <c r="F54" s="84"/>
+      <c r="G54" s="84"/>
+      <c r="H54" s="85"/>
     </row>
     <row r="55" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B55" s="31" t="s">
@@ -5500,35 +5565,35 @@
       <c r="C55" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="D55" s="74" t="s">
+      <c r="D55" s="86" t="s">
         <v>169</v>
       </c>
-      <c r="E55" s="74"/>
-      <c r="F55" s="74"/>
-      <c r="G55" s="74"/>
-      <c r="H55" s="75"/>
+      <c r="E55" s="86"/>
+      <c r="F55" s="86"/>
+      <c r="G55" s="86"/>
+      <c r="H55" s="87"/>
     </row>
     <row r="56" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="76" t="s">
+      <c r="B56" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="C56" s="85"/>
-      <c r="D56" s="85"/>
-      <c r="E56" s="85"/>
-      <c r="F56" s="85"/>
-      <c r="G56" s="85"/>
-      <c r="H56" s="86"/>
+      <c r="C56" s="79"/>
+      <c r="D56" s="79"/>
+      <c r="E56" s="79"/>
+      <c r="F56" s="79"/>
+      <c r="G56" s="79"/>
+      <c r="H56" s="80"/>
     </row>
     <row r="57" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B57" s="61" t="s">
+      <c r="B57" s="104" t="s">
         <v>96</v>
       </c>
-      <c r="C57" s="62"/>
-      <c r="D57" s="62"/>
-      <c r="E57" s="62"/>
-      <c r="F57" s="62"/>
-      <c r="G57" s="62"/>
-      <c r="H57" s="63"/>
+      <c r="C57" s="105"/>
+      <c r="D57" s="105"/>
+      <c r="E57" s="105"/>
+      <c r="F57" s="105"/>
+      <c r="G57" s="105"/>
+      <c r="H57" s="106"/>
     </row>
     <row r="58" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B58" s="35" t="s">
@@ -5543,11 +5608,11 @@
       <c r="E58" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="F58" s="89" t="s">
+      <c r="F58" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="G58" s="90"/>
-      <c r="H58" s="91"/>
+      <c r="G58" s="69"/>
+      <c r="H58" s="70"/>
     </row>
     <row r="59" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B59" s="27" t="s">
@@ -5562,11 +5627,11 @@
       <c r="E59" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="F59" s="82" t="s">
+      <c r="F59" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="G59" s="83"/>
-      <c r="H59" s="84"/>
+      <c r="G59" s="75"/>
+      <c r="H59" s="76"/>
     </row>
     <row r="60" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B60" s="27" t="s">
@@ -5581,11 +5646,11 @@
       <c r="E60" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="F60" s="82" t="s">
+      <c r="F60" s="74" t="s">
         <v>129</v>
       </c>
-      <c r="G60" s="83"/>
-      <c r="H60" s="84"/>
+      <c r="G60" s="75"/>
+      <c r="H60" s="76"/>
     </row>
     <row r="61" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B61" s="27" t="s">
@@ -5600,11 +5665,11 @@
       <c r="E61" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="F61" s="82" t="s">
+      <c r="F61" s="74" t="s">
         <v>130</v>
       </c>
-      <c r="G61" s="83"/>
-      <c r="H61" s="84"/>
+      <c r="G61" s="75"/>
+      <c r="H61" s="76"/>
     </row>
     <row r="62" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B62" s="27" t="s">
@@ -5619,11 +5684,11 @@
       <c r="E62" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="F62" s="82" t="s">
+      <c r="F62" s="74" t="s">
         <v>137</v>
       </c>
-      <c r="G62" s="83"/>
-      <c r="H62" s="84"/>
+      <c r="G62" s="75"/>
+      <c r="H62" s="76"/>
     </row>
     <row r="63" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B63" s="27" t="s">
@@ -5638,22 +5703,22 @@
       <c r="E63" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="F63" s="82" t="s">
+      <c r="F63" s="74" t="s">
         <v>132</v>
       </c>
-      <c r="G63" s="83"/>
-      <c r="H63" s="84"/>
+      <c r="G63" s="75"/>
+      <c r="H63" s="76"/>
     </row>
     <row r="64" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B64" s="64" t="s">
+      <c r="B64" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="C64" s="65"/>
-      <c r="D64" s="65"/>
-      <c r="E64" s="65"/>
-      <c r="F64" s="65"/>
-      <c r="G64" s="65"/>
-      <c r="H64" s="66"/>
+      <c r="C64" s="62"/>
+      <c r="D64" s="62"/>
+      <c r="E64" s="62"/>
+      <c r="F64" s="62"/>
+      <c r="G64" s="62"/>
+      <c r="H64" s="63"/>
     </row>
     <row r="65" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B65" s="35" t="s">
@@ -5665,12 +5730,12 @@
       <c r="D65" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="E65" s="67" t="s">
+      <c r="E65" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="F65" s="67"/>
-      <c r="G65" s="67"/>
-      <c r="H65" s="68"/>
+      <c r="F65" s="64"/>
+      <c r="G65" s="64"/>
+      <c r="H65" s="65"/>
     </row>
     <row r="66" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B66" s="27" t="s">
@@ -5682,12 +5747,12 @@
       <c r="D66" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E66" s="57" t="s">
+      <c r="E66" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="F66" s="57"/>
-      <c r="G66" s="57"/>
-      <c r="H66" s="58"/>
+      <c r="F66" s="66"/>
+      <c r="G66" s="66"/>
+      <c r="H66" s="67"/>
     </row>
     <row r="67" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B67" s="27" t="s">
@@ -5699,12 +5764,12 @@
       <c r="D67" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E67" s="57" t="s">
+      <c r="E67" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="F67" s="57"/>
-      <c r="G67" s="57"/>
-      <c r="H67" s="58"/>
+      <c r="F67" s="66"/>
+      <c r="G67" s="66"/>
+      <c r="H67" s="67"/>
     </row>
     <row r="68" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B68" s="27" t="s">
@@ -5716,12 +5781,12 @@
       <c r="D68" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E68" s="57" t="s">
+      <c r="E68" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="F68" s="57"/>
-      <c r="G68" s="57"/>
-      <c r="H68" s="58"/>
+      <c r="F68" s="66"/>
+      <c r="G68" s="66"/>
+      <c r="H68" s="67"/>
     </row>
     <row r="69" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B69" s="29" t="s">
@@ -5733,65 +5798,65 @@
       <c r="D69" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E69" s="59" t="s">
+      <c r="E69" s="107" t="s">
         <v>105</v>
       </c>
-      <c r="F69" s="59"/>
-      <c r="G69" s="59"/>
-      <c r="H69" s="60"/>
+      <c r="F69" s="107"/>
+      <c r="G69" s="107"/>
+      <c r="H69" s="108"/>
     </row>
     <row r="70" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="71" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B71" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C71" s="87" t="s">
+      <c r="C71" s="77" t="s">
         <v>76</v>
       </c>
-      <c r="D71" s="87"/>
-      <c r="E71" s="87"/>
-      <c r="F71" s="87"/>
-      <c r="G71" s="87"/>
-      <c r="H71" s="88"/>
+      <c r="D71" s="77"/>
+      <c r="E71" s="77"/>
+      <c r="F71" s="77"/>
+      <c r="G71" s="77"/>
+      <c r="H71" s="109"/>
     </row>
     <row r="72" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B72" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C72" s="72" t="s">
+      <c r="C72" s="84" t="s">
         <v>139</v>
       </c>
-      <c r="D72" s="72"/>
-      <c r="E72" s="72"/>
-      <c r="F72" s="72"/>
-      <c r="G72" s="72"/>
-      <c r="H72" s="73"/>
+      <c r="D72" s="84"/>
+      <c r="E72" s="84"/>
+      <c r="F72" s="84"/>
+      <c r="G72" s="84"/>
+      <c r="H72" s="85"/>
     </row>
     <row r="73" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B73" s="46" t="s">
         <v>267</v>
       </c>
-      <c r="C73" s="69" t="s">
+      <c r="C73" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="D73" s="70"/>
-      <c r="E73" s="70"/>
-      <c r="F73" s="70"/>
-      <c r="G73" s="70"/>
-      <c r="H73" s="71"/>
+      <c r="D73" s="72"/>
+      <c r="E73" s="72"/>
+      <c r="F73" s="72"/>
+      <c r="G73" s="72"/>
+      <c r="H73" s="73"/>
     </row>
     <row r="74" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B74" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C74" s="72" t="s">
+      <c r="C74" s="84" t="s">
         <v>138</v>
       </c>
-      <c r="D74" s="72"/>
-      <c r="E74" s="72"/>
-      <c r="F74" s="72"/>
-      <c r="G74" s="72"/>
-      <c r="H74" s="73"/>
+      <c r="D74" s="84"/>
+      <c r="E74" s="84"/>
+      <c r="F74" s="84"/>
+      <c r="G74" s="84"/>
+      <c r="H74" s="85"/>
     </row>
     <row r="75" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B75" s="31" t="s">
@@ -5800,35 +5865,35 @@
       <c r="C75" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="D75" s="74" t="s">
+      <c r="D75" s="86" t="s">
         <v>170</v>
       </c>
-      <c r="E75" s="74"/>
-      <c r="F75" s="74"/>
-      <c r="G75" s="74"/>
-      <c r="H75" s="75"/>
+      <c r="E75" s="86"/>
+      <c r="F75" s="86"/>
+      <c r="G75" s="86"/>
+      <c r="H75" s="87"/>
     </row>
     <row r="76" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="76" t="s">
+      <c r="B76" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="C76" s="85"/>
-      <c r="D76" s="85"/>
-      <c r="E76" s="85"/>
-      <c r="F76" s="85"/>
-      <c r="G76" s="85"/>
-      <c r="H76" s="86"/>
+      <c r="C76" s="79"/>
+      <c r="D76" s="79"/>
+      <c r="E76" s="79"/>
+      <c r="F76" s="79"/>
+      <c r="G76" s="79"/>
+      <c r="H76" s="80"/>
     </row>
     <row r="77" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B77" s="108" t="s">
+      <c r="B77" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="C77" s="109"/>
-      <c r="D77" s="109"/>
-      <c r="E77" s="109"/>
-      <c r="F77" s="109"/>
-      <c r="G77" s="109"/>
-      <c r="H77" s="110"/>
+      <c r="C77" s="59"/>
+      <c r="D77" s="59"/>
+      <c r="E77" s="59"/>
+      <c r="F77" s="59"/>
+      <c r="G77" s="59"/>
+      <c r="H77" s="60"/>
     </row>
     <row r="78" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B78" s="35" t="s">
@@ -5843,11 +5908,11 @@
       <c r="E78" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="F78" s="89" t="s">
+      <c r="F78" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="G78" s="90"/>
-      <c r="H78" s="91"/>
+      <c r="G78" s="69"/>
+      <c r="H78" s="70"/>
     </row>
     <row r="79" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B79" s="27" t="s">
@@ -5862,11 +5927,11 @@
       <c r="E79" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="F79" s="82" t="s">
+      <c r="F79" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="G79" s="83"/>
-      <c r="H79" s="84"/>
+      <c r="G79" s="75"/>
+      <c r="H79" s="76"/>
     </row>
     <row r="80" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B80" s="28" t="s">
@@ -5881,11 +5946,11 @@
       <c r="E80" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="F80" s="69" t="s">
+      <c r="F80" s="71" t="s">
         <v>259</v>
       </c>
-      <c r="G80" s="70"/>
-      <c r="H80" s="71"/>
+      <c r="G80" s="72"/>
+      <c r="H80" s="73"/>
     </row>
     <row r="81" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B81" s="28" t="s">
@@ -5900,11 +5965,11 @@
       <c r="E81" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="F81" s="69" t="s">
+      <c r="F81" s="71" t="s">
         <v>260</v>
       </c>
-      <c r="G81" s="70"/>
-      <c r="H81" s="71"/>
+      <c r="G81" s="72"/>
+      <c r="H81" s="73"/>
     </row>
     <row r="82" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B82" s="27" t="s">
@@ -5919,11 +5984,11 @@
       <c r="E82" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="F82" s="82" t="s">
+      <c r="F82" s="74" t="s">
         <v>129</v>
       </c>
-      <c r="G82" s="83"/>
-      <c r="H82" s="84"/>
+      <c r="G82" s="75"/>
+      <c r="H82" s="76"/>
     </row>
     <row r="83" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B83" s="27" t="s">
@@ -5938,11 +6003,11 @@
       <c r="E83" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="F83" s="82" t="s">
+      <c r="F83" s="74" t="s">
         <v>130</v>
       </c>
-      <c r="G83" s="83"/>
-      <c r="H83" s="84"/>
+      <c r="G83" s="75"/>
+      <c r="H83" s="76"/>
     </row>
     <row r="84" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B84" s="27" t="s">
@@ -5957,11 +6022,11 @@
       <c r="E84" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="F84" s="82" t="s">
+      <c r="F84" s="74" t="s">
         <v>137</v>
       </c>
-      <c r="G84" s="83"/>
-      <c r="H84" s="84"/>
+      <c r="G84" s="75"/>
+      <c r="H84" s="76"/>
     </row>
     <row r="85" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B85" s="27" t="s">
@@ -5976,22 +6041,22 @@
       <c r="E85" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="F85" s="82" t="s">
+      <c r="F85" s="74" t="s">
         <v>132</v>
       </c>
-      <c r="G85" s="83"/>
-      <c r="H85" s="84"/>
+      <c r="G85" s="75"/>
+      <c r="H85" s="76"/>
     </row>
     <row r="86" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B86" s="50" t="s">
+      <c r="B86" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="C86" s="51"/>
-      <c r="D86" s="51"/>
-      <c r="E86" s="51"/>
-      <c r="F86" s="51"/>
-      <c r="G86" s="51"/>
-      <c r="H86" s="52"/>
+      <c r="C86" s="52"/>
+      <c r="D86" s="52"/>
+      <c r="E86" s="52"/>
+      <c r="F86" s="52"/>
+      <c r="G86" s="52"/>
+      <c r="H86" s="53"/>
     </row>
     <row r="87" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B87" s="35" t="s">
@@ -6003,12 +6068,12 @@
       <c r="D87" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="E87" s="67" t="s">
+      <c r="E87" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="F87" s="67"/>
-      <c r="G87" s="67"/>
-      <c r="H87" s="68"/>
+      <c r="F87" s="64"/>
+      <c r="G87" s="64"/>
+      <c r="H87" s="65"/>
     </row>
     <row r="88" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B88" s="27" t="s">
@@ -6020,12 +6085,12 @@
       <c r="D88" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E88" s="57" t="s">
+      <c r="E88" s="66" t="s">
         <v>258</v>
       </c>
-      <c r="F88" s="57"/>
-      <c r="G88" s="57"/>
-      <c r="H88" s="58"/>
+      <c r="F88" s="66"/>
+      <c r="G88" s="66"/>
+      <c r="H88" s="67"/>
     </row>
     <row r="89" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B89" s="27" t="s">
@@ -6037,12 +6102,12 @@
       <c r="D89" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E89" s="57" t="s">
+      <c r="E89" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="F89" s="57"/>
-      <c r="G89" s="57"/>
-      <c r="H89" s="58"/>
+      <c r="F89" s="66"/>
+      <c r="G89" s="66"/>
+      <c r="H89" s="67"/>
     </row>
     <row r="90" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B90" s="27" t="s">
@@ -6054,12 +6119,12 @@
       <c r="D90" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E90" s="57" t="s">
+      <c r="E90" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="F90" s="57"/>
-      <c r="G90" s="57"/>
-      <c r="H90" s="58"/>
+      <c r="F90" s="66"/>
+      <c r="G90" s="66"/>
+      <c r="H90" s="67"/>
     </row>
     <row r="91" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B91" s="29" t="s">
@@ -6071,65 +6136,65 @@
       <c r="D91" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E91" s="59" t="s">
+      <c r="E91" s="107" t="s">
         <v>105</v>
       </c>
-      <c r="F91" s="59"/>
-      <c r="G91" s="59"/>
-      <c r="H91" s="60"/>
+      <c r="F91" s="107"/>
+      <c r="G91" s="107"/>
+      <c r="H91" s="108"/>
     </row>
     <row r="92" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="93" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B93" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C93" s="79" t="s">
+      <c r="C93" s="101" t="s">
         <v>81</v>
       </c>
-      <c r="D93" s="80"/>
-      <c r="E93" s="80"/>
-      <c r="F93" s="80"/>
-      <c r="G93" s="80"/>
-      <c r="H93" s="81"/>
+      <c r="D93" s="102"/>
+      <c r="E93" s="102"/>
+      <c r="F93" s="102"/>
+      <c r="G93" s="102"/>
+      <c r="H93" s="103"/>
     </row>
     <row r="94" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B94" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C94" s="69" t="s">
+      <c r="C94" s="71" t="s">
         <v>140</v>
       </c>
-      <c r="D94" s="70"/>
-      <c r="E94" s="70"/>
-      <c r="F94" s="70"/>
-      <c r="G94" s="70"/>
-      <c r="H94" s="71"/>
+      <c r="D94" s="72"/>
+      <c r="E94" s="72"/>
+      <c r="F94" s="72"/>
+      <c r="G94" s="72"/>
+      <c r="H94" s="73"/>
     </row>
     <row r="95" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B95" s="46" t="s">
         <v>267</v>
       </c>
-      <c r="C95" s="69" t="s">
+      <c r="C95" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="D95" s="70"/>
-      <c r="E95" s="70"/>
-      <c r="F95" s="70"/>
-      <c r="G95" s="70"/>
-      <c r="H95" s="71"/>
+      <c r="D95" s="72"/>
+      <c r="E95" s="72"/>
+      <c r="F95" s="72"/>
+      <c r="G95" s="72"/>
+      <c r="H95" s="73"/>
     </row>
     <row r="96" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B96" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C96" s="72" t="s">
+      <c r="C96" s="84" t="s">
         <v>138</v>
       </c>
-      <c r="D96" s="72"/>
-      <c r="E96" s="72"/>
-      <c r="F96" s="72"/>
-      <c r="G96" s="72"/>
-      <c r="H96" s="73"/>
+      <c r="D96" s="84"/>
+      <c r="E96" s="84"/>
+      <c r="F96" s="84"/>
+      <c r="G96" s="84"/>
+      <c r="H96" s="85"/>
     </row>
     <row r="97" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B97" s="31" t="s">
@@ -6138,35 +6203,35 @@
       <c r="C97" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="D97" s="74" t="s">
+      <c r="D97" s="86" t="s">
         <v>171</v>
       </c>
-      <c r="E97" s="74"/>
-      <c r="F97" s="74"/>
-      <c r="G97" s="74"/>
-      <c r="H97" s="75"/>
+      <c r="E97" s="86"/>
+      <c r="F97" s="86"/>
+      <c r="G97" s="86"/>
+      <c r="H97" s="87"/>
     </row>
     <row r="98" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B98" s="76" t="s">
+      <c r="B98" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="C98" s="77"/>
-      <c r="D98" s="77"/>
-      <c r="E98" s="77"/>
-      <c r="F98" s="77"/>
-      <c r="G98" s="77"/>
-      <c r="H98" s="78"/>
+      <c r="C98" s="110"/>
+      <c r="D98" s="110"/>
+      <c r="E98" s="110"/>
+      <c r="F98" s="110"/>
+      <c r="G98" s="110"/>
+      <c r="H98" s="111"/>
     </row>
     <row r="99" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B99" s="61" t="s">
+      <c r="B99" s="104" t="s">
         <v>96</v>
       </c>
-      <c r="C99" s="62"/>
-      <c r="D99" s="62"/>
-      <c r="E99" s="62"/>
-      <c r="F99" s="62"/>
-      <c r="G99" s="62"/>
-      <c r="H99" s="63"/>
+      <c r="C99" s="105"/>
+      <c r="D99" s="105"/>
+      <c r="E99" s="105"/>
+      <c r="F99" s="105"/>
+      <c r="G99" s="105"/>
+      <c r="H99" s="106"/>
     </row>
     <row r="100" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B100" s="35" t="s">
@@ -6181,11 +6246,11 @@
       <c r="E100" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="F100" s="89" t="s">
+      <c r="F100" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="G100" s="90"/>
-      <c r="H100" s="91"/>
+      <c r="G100" s="69"/>
+      <c r="H100" s="70"/>
     </row>
     <row r="101" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B101" s="27" t="s">
@@ -6200,11 +6265,11 @@
       <c r="E101" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="F101" s="82" t="s">
+      <c r="F101" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="G101" s="83"/>
-      <c r="H101" s="84"/>
+      <c r="G101" s="75"/>
+      <c r="H101" s="76"/>
     </row>
     <row r="102" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B102" s="28" t="s">
@@ -6219,22 +6284,22 @@
       <c r="E102" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="F102" s="69" t="s">
+      <c r="F102" s="71" t="s">
         <v>134</v>
       </c>
-      <c r="G102" s="70"/>
-      <c r="H102" s="71"/>
+      <c r="G102" s="72"/>
+      <c r="H102" s="73"/>
     </row>
     <row r="103" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B103" s="64" t="s">
+      <c r="B103" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="C103" s="65"/>
-      <c r="D103" s="65"/>
-      <c r="E103" s="65"/>
-      <c r="F103" s="65"/>
-      <c r="G103" s="65"/>
-      <c r="H103" s="66"/>
+      <c r="C103" s="62"/>
+      <c r="D103" s="62"/>
+      <c r="E103" s="62"/>
+      <c r="F103" s="62"/>
+      <c r="G103" s="62"/>
+      <c r="H103" s="63"/>
     </row>
     <row r="104" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B104" s="35" t="s">
@@ -6246,12 +6311,12 @@
       <c r="D104" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="E104" s="67" t="s">
+      <c r="E104" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="F104" s="67"/>
-      <c r="G104" s="67"/>
-      <c r="H104" s="68"/>
+      <c r="F104" s="64"/>
+      <c r="G104" s="64"/>
+      <c r="H104" s="65"/>
     </row>
     <row r="105" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B105" s="27" t="s">
@@ -6263,12 +6328,12 @@
       <c r="D105" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E105" s="57" t="s">
+      <c r="E105" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="F105" s="57"/>
-      <c r="G105" s="57"/>
-      <c r="H105" s="58"/>
+      <c r="F105" s="66"/>
+      <c r="G105" s="66"/>
+      <c r="H105" s="67"/>
     </row>
     <row r="106" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B106" s="27" t="s">
@@ -6280,12 +6345,12 @@
       <c r="D106" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E106" s="57" t="s">
+      <c r="E106" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="F106" s="57"/>
-      <c r="G106" s="57"/>
-      <c r="H106" s="58"/>
+      <c r="F106" s="66"/>
+      <c r="G106" s="66"/>
+      <c r="H106" s="67"/>
     </row>
     <row r="107" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B107" s="27" t="s">
@@ -6297,12 +6362,12 @@
       <c r="D107" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E107" s="57" t="s">
+      <c r="E107" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="F107" s="57"/>
-      <c r="G107" s="57"/>
-      <c r="H107" s="58"/>
+      <c r="F107" s="66"/>
+      <c r="G107" s="66"/>
+      <c r="H107" s="67"/>
     </row>
     <row r="108" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B108" s="29" t="s">
@@ -6314,15 +6379,93 @@
       <c r="D108" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E108" s="59" t="s">
+      <c r="E108" s="107" t="s">
         <v>105</v>
       </c>
-      <c r="F108" s="59"/>
-      <c r="G108" s="59"/>
-      <c r="H108" s="60"/>
+      <c r="F108" s="107"/>
+      <c r="G108" s="107"/>
+      <c r="H108" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="102">
+    <mergeCell ref="E108:H108"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="E47:H47"/>
+    <mergeCell ref="E48:H48"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="F85:H85"/>
+    <mergeCell ref="F82:H82"/>
+    <mergeCell ref="F102:H102"/>
+    <mergeCell ref="B103:H103"/>
+    <mergeCell ref="E104:H104"/>
+    <mergeCell ref="E105:H105"/>
+    <mergeCell ref="E106:H106"/>
+    <mergeCell ref="E107:H107"/>
+    <mergeCell ref="F79:H79"/>
+    <mergeCell ref="B86:H86"/>
+    <mergeCell ref="E87:H87"/>
+    <mergeCell ref="F83:H83"/>
+    <mergeCell ref="F84:H84"/>
+    <mergeCell ref="F80:H80"/>
+    <mergeCell ref="F81:H81"/>
+    <mergeCell ref="F101:H101"/>
+    <mergeCell ref="E88:H88"/>
+    <mergeCell ref="E89:H89"/>
+    <mergeCell ref="E90:H90"/>
+    <mergeCell ref="E91:H91"/>
+    <mergeCell ref="C93:H93"/>
+    <mergeCell ref="C94:H94"/>
+    <mergeCell ref="C96:H96"/>
+    <mergeCell ref="D97:H97"/>
+    <mergeCell ref="B98:H98"/>
+    <mergeCell ref="B99:H99"/>
+    <mergeCell ref="F100:H100"/>
+    <mergeCell ref="F78:H78"/>
+    <mergeCell ref="E65:H65"/>
+    <mergeCell ref="E66:H66"/>
+    <mergeCell ref="E67:H67"/>
+    <mergeCell ref="E68:H68"/>
+    <mergeCell ref="E69:H69"/>
+    <mergeCell ref="C71:H71"/>
+    <mergeCell ref="C72:H72"/>
+    <mergeCell ref="C74:H74"/>
+    <mergeCell ref="D75:H75"/>
+    <mergeCell ref="B76:H76"/>
+    <mergeCell ref="B77:H77"/>
+    <mergeCell ref="B64:H64"/>
+    <mergeCell ref="C52:H52"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="D55:H55"/>
+    <mergeCell ref="B56:H56"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="F58:H58"/>
+    <mergeCell ref="F59:H59"/>
+    <mergeCell ref="F60:H60"/>
+    <mergeCell ref="F61:H61"/>
+    <mergeCell ref="F62:H62"/>
+    <mergeCell ref="F63:H63"/>
+    <mergeCell ref="B43:H43"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="D37:H37"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="C33:H33"/>
     <mergeCell ref="C35:H35"/>
     <mergeCell ref="C53:H53"/>
     <mergeCell ref="C73:H73"/>
@@ -6347,84 +6490,6 @@
     <mergeCell ref="C18:H18"/>
     <mergeCell ref="C34:H34"/>
     <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="B43:H43"/>
-    <mergeCell ref="E44:H44"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="D37:H37"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="B64:H64"/>
-    <mergeCell ref="C52:H52"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="D55:H55"/>
-    <mergeCell ref="B56:H56"/>
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="F58:H58"/>
-    <mergeCell ref="F59:H59"/>
-    <mergeCell ref="F60:H60"/>
-    <mergeCell ref="F61:H61"/>
-    <mergeCell ref="F62:H62"/>
-    <mergeCell ref="F63:H63"/>
-    <mergeCell ref="F78:H78"/>
-    <mergeCell ref="E65:H65"/>
-    <mergeCell ref="E66:H66"/>
-    <mergeCell ref="E67:H67"/>
-    <mergeCell ref="E68:H68"/>
-    <mergeCell ref="E69:H69"/>
-    <mergeCell ref="C71:H71"/>
-    <mergeCell ref="C72:H72"/>
-    <mergeCell ref="C74:H74"/>
-    <mergeCell ref="D75:H75"/>
-    <mergeCell ref="B76:H76"/>
-    <mergeCell ref="B77:H77"/>
-    <mergeCell ref="F79:H79"/>
-    <mergeCell ref="B86:H86"/>
-    <mergeCell ref="E87:H87"/>
-    <mergeCell ref="F83:H83"/>
-    <mergeCell ref="F84:H84"/>
-    <mergeCell ref="F80:H80"/>
-    <mergeCell ref="F81:H81"/>
-    <mergeCell ref="F101:H101"/>
-    <mergeCell ref="E88:H88"/>
-    <mergeCell ref="E89:H89"/>
-    <mergeCell ref="E90:H90"/>
-    <mergeCell ref="E91:H91"/>
-    <mergeCell ref="C93:H93"/>
-    <mergeCell ref="C94:H94"/>
-    <mergeCell ref="C96:H96"/>
-    <mergeCell ref="D97:H97"/>
-    <mergeCell ref="B98:H98"/>
-    <mergeCell ref="B99:H99"/>
-    <mergeCell ref="F100:H100"/>
-    <mergeCell ref="E108:H108"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="E45:H45"/>
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="E47:H47"/>
-    <mergeCell ref="E48:H48"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="F85:H85"/>
-    <mergeCell ref="F82:H82"/>
-    <mergeCell ref="F102:H102"/>
-    <mergeCell ref="B103:H103"/>
-    <mergeCell ref="E104:H104"/>
-    <mergeCell ref="E105:H105"/>
-    <mergeCell ref="E106:H106"/>
-    <mergeCell ref="E107:H107"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6453,10 +6518,10 @@
       <c r="B2" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="77" t="s">
         <v>141</v>
       </c>
-      <c r="D2" s="87"/>
+      <c r="D2" s="77"/>
       <c r="E2" s="24" t="s">
         <v>37</v>
       </c>
@@ -6480,12 +6545,12 @@
       <c r="D3" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="100" t="s">
+      <c r="E3" s="99" t="s">
         <v>108</v>
       </c>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="101"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="100"/>
     </row>
     <row r="4" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="31" t="s">
@@ -6500,119 +6565,119 @@
       <c r="E4" s="40">
         <v>43202</v>
       </c>
-      <c r="F4" s="105"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="107"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="92"/>
     </row>
     <row r="5" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="86"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="80"/>
     </row>
     <row r="6" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B6" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="81" t="s">
         <v>143</v>
       </c>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="103"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="82"/>
     </row>
     <row r="7" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B7" s="92" t="s">
+      <c r="B7" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="104" t="s">
+      <c r="C7" s="83" t="s">
         <v>144</v>
       </c>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="73"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="85"/>
     </row>
     <row r="8" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="93"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="75"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="87"/>
     </row>
     <row r="9" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="85"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="86"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="80"/>
     </row>
     <row r="10" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B10" s="98" t="s">
+      <c r="B10" s="97" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="94" t="s">
+      <c r="D10" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="95"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="94"/>
     </row>
     <row r="11" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B11" s="92"/>
+      <c r="B11" s="88"/>
       <c r="C11" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="72" t="s">
+      <c r="D11" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="73"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="85"/>
     </row>
     <row r="12" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="99"/>
+      <c r="B12" s="98"/>
       <c r="C12" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="96" t="s">
+      <c r="D12" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="97"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="96"/>
     </row>
     <row r="13" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="76" t="s">
+      <c r="B14" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="85"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="86"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="80"/>
     </row>
     <row r="15" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="21"/>
@@ -6627,53 +6692,53 @@
       <c r="B16" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="79" t="s">
+      <c r="C16" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="80"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="81"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="103"/>
     </row>
     <row r="17" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B17" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="69" t="s">
+      <c r="C17" s="71" t="s">
         <v>145</v>
       </c>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="71"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="73"/>
     </row>
     <row r="18" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="46" t="s">
         <v>267</v>
       </c>
-      <c r="C18" s="69" t="s">
+      <c r="C18" s="71" t="s">
         <v>270</v>
       </c>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="71"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="73"/>
     </row>
     <row r="19" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B19" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="72" t="s">
+      <c r="C19" s="84" t="s">
         <v>146</v>
       </c>
-      <c r="D19" s="72"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="73"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="85"/>
     </row>
     <row r="20" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="31" t="s">
@@ -6682,35 +6747,35 @@
       <c r="C20" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="74" t="s">
+      <c r="D20" s="86" t="s">
         <v>147</v>
       </c>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="75"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="87"/>
     </row>
     <row r="21" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="76" t="s">
+      <c r="B21" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="85"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="85"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="86"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="80"/>
     </row>
     <row r="22" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B22" s="111" t="s">
+      <c r="B22" s="112" t="s">
         <v>96</v>
       </c>
-      <c r="C22" s="112"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="112"/>
-      <c r="G22" s="112"/>
-      <c r="H22" s="113"/>
+      <c r="C22" s="113"/>
+      <c r="D22" s="113"/>
+      <c r="E22" s="113"/>
+      <c r="F22" s="113"/>
+      <c r="G22" s="113"/>
+      <c r="H22" s="114"/>
     </row>
     <row r="23" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B23" s="35" t="s">
@@ -6725,11 +6790,11 @@
       <c r="E23" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="F23" s="89" t="s">
+      <c r="F23" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="G23" s="90"/>
-      <c r="H23" s="91"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="70"/>
     </row>
     <row r="24" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B24" s="27" t="s">
@@ -6744,22 +6809,22 @@
       <c r="E24" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="F24" s="82" t="s">
+      <c r="F24" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="G24" s="83"/>
-      <c r="H24" s="84"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="76"/>
     </row>
     <row r="25" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B25" s="64" t="s">
+      <c r="B25" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="66"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="63"/>
     </row>
     <row r="26" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B26" s="35" t="s">
@@ -6771,12 +6836,12 @@
       <c r="D26" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="E26" s="67" t="s">
+      <c r="E26" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="68"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="65"/>
     </row>
     <row r="27" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B27" s="27" t="s">
@@ -6788,12 +6853,12 @@
       <c r="D27" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="57" t="s">
+      <c r="E27" s="66" t="s">
         <v>157</v>
       </c>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="58"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="67"/>
     </row>
     <row r="28" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B28" s="27" t="s">
@@ -6805,12 +6870,12 @@
       <c r="D28" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="57" t="s">
+      <c r="E28" s="66" t="s">
         <v>159</v>
       </c>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="58"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="67"/>
     </row>
     <row r="29" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B29" s="27" t="s">
@@ -6822,12 +6887,12 @@
       <c r="D29" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="57" t="s">
+      <c r="E29" s="66" t="s">
         <v>161</v>
       </c>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="58"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="67"/>
     </row>
     <row r="30" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B30" s="27" t="s">
@@ -6839,12 +6904,12 @@
       <c r="D30" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="57" t="s">
+      <c r="E30" s="66" t="s">
         <v>163</v>
       </c>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="58"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="67"/>
     </row>
     <row r="31" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="29" t="s">
@@ -6856,65 +6921,65 @@
       <c r="D31" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E31" s="59" t="s">
+      <c r="E31" s="107" t="s">
         <v>165</v>
       </c>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="60"/>
+      <c r="F31" s="107"/>
+      <c r="G31" s="107"/>
+      <c r="H31" s="108"/>
     </row>
     <row r="32" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="33" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B33" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="79" t="s">
+      <c r="C33" s="101" t="s">
         <v>62</v>
       </c>
-      <c r="D33" s="80"/>
-      <c r="E33" s="80"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="80"/>
-      <c r="H33" s="81"/>
+      <c r="D33" s="102"/>
+      <c r="E33" s="102"/>
+      <c r="F33" s="102"/>
+      <c r="G33" s="102"/>
+      <c r="H33" s="103"/>
     </row>
     <row r="34" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B34" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="69" t="s">
+      <c r="C34" s="71" t="s">
         <v>166</v>
       </c>
-      <c r="D34" s="70"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="70"/>
-      <c r="H34" s="71"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="73"/>
     </row>
     <row r="35" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="46" t="s">
         <v>267</v>
       </c>
-      <c r="C35" s="69" t="s">
+      <c r="C35" s="71" t="s">
         <v>270</v>
       </c>
-      <c r="D35" s="70"/>
-      <c r="E35" s="70"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="70"/>
-      <c r="H35" s="71"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="73"/>
     </row>
     <row r="36" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B36" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="72" t="s">
+      <c r="C36" s="84" t="s">
         <v>167</v>
       </c>
-      <c r="D36" s="72"/>
-      <c r="E36" s="72"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="73"/>
+      <c r="D36" s="84"/>
+      <c r="E36" s="84"/>
+      <c r="F36" s="84"/>
+      <c r="G36" s="84"/>
+      <c r="H36" s="85"/>
     </row>
     <row r="37" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="31" t="s">
@@ -6923,35 +6988,35 @@
       <c r="C37" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="D37" s="74" t="s">
+      <c r="D37" s="86" t="s">
         <v>182</v>
       </c>
-      <c r="E37" s="74"/>
-      <c r="F37" s="74"/>
-      <c r="G37" s="74"/>
-      <c r="H37" s="75"/>
+      <c r="E37" s="86"/>
+      <c r="F37" s="86"/>
+      <c r="G37" s="86"/>
+      <c r="H37" s="87"/>
     </row>
     <row r="38" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="76" t="s">
+      <c r="B38" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="85"/>
-      <c r="D38" s="85"/>
-      <c r="E38" s="85"/>
-      <c r="F38" s="85"/>
-      <c r="G38" s="85"/>
-      <c r="H38" s="86"/>
+      <c r="C38" s="79"/>
+      <c r="D38" s="79"/>
+      <c r="E38" s="79"/>
+      <c r="F38" s="79"/>
+      <c r="G38" s="79"/>
+      <c r="H38" s="80"/>
     </row>
     <row r="39" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B39" s="61" t="s">
+      <c r="B39" s="104" t="s">
         <v>96</v>
       </c>
-      <c r="C39" s="62"/>
-      <c r="D39" s="62"/>
-      <c r="E39" s="62"/>
-      <c r="F39" s="62"/>
-      <c r="G39" s="62"/>
-      <c r="H39" s="63"/>
+      <c r="C39" s="105"/>
+      <c r="D39" s="105"/>
+      <c r="E39" s="105"/>
+      <c r="F39" s="105"/>
+      <c r="G39" s="105"/>
+      <c r="H39" s="106"/>
     </row>
     <row r="40" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B40" s="35" t="s">
@@ -6966,11 +7031,11 @@
       <c r="E40" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="F40" s="89" t="s">
+      <c r="F40" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="G40" s="90"/>
-      <c r="H40" s="91"/>
+      <c r="G40" s="69"/>
+      <c r="H40" s="70"/>
     </row>
     <row r="41" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B41" s="27" t="s">
@@ -6985,11 +7050,11 @@
       <c r="E41" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="F41" s="82" t="s">
+      <c r="F41" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="G41" s="83"/>
-      <c r="H41" s="84"/>
+      <c r="G41" s="75"/>
+      <c r="H41" s="76"/>
     </row>
     <row r="42" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B42" s="28" t="s">
@@ -7004,22 +7069,22 @@
       <c r="E42" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="F42" s="69" t="s">
+      <c r="F42" s="71" t="s">
         <v>157</v>
       </c>
-      <c r="G42" s="70"/>
-      <c r="H42" s="71"/>
+      <c r="G42" s="72"/>
+      <c r="H42" s="73"/>
     </row>
     <row r="43" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B43" s="64" t="s">
+      <c r="B43" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="C43" s="65"/>
-      <c r="D43" s="65"/>
-      <c r="E43" s="65"/>
-      <c r="F43" s="65"/>
-      <c r="G43" s="65"/>
-      <c r="H43" s="66"/>
+      <c r="C43" s="62"/>
+      <c r="D43" s="62"/>
+      <c r="E43" s="62"/>
+      <c r="F43" s="62"/>
+      <c r="G43" s="62"/>
+      <c r="H43" s="63"/>
     </row>
     <row r="44" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B44" s="35" t="s">
@@ -7031,12 +7096,12 @@
       <c r="D44" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="E44" s="67" t="s">
+      <c r="E44" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="F44" s="67"/>
-      <c r="G44" s="67"/>
-      <c r="H44" s="68"/>
+      <c r="F44" s="64"/>
+      <c r="G44" s="64"/>
+      <c r="H44" s="65"/>
     </row>
     <row r="45" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B45" s="27" t="s">
@@ -7048,12 +7113,12 @@
       <c r="D45" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E45" s="57" t="s">
+      <c r="E45" s="66" t="s">
         <v>157</v>
       </c>
-      <c r="F45" s="57"/>
-      <c r="G45" s="57"/>
-      <c r="H45" s="58"/>
+      <c r="F45" s="66"/>
+      <c r="G45" s="66"/>
+      <c r="H45" s="67"/>
     </row>
     <row r="46" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B46" s="27" t="s">
@@ -7065,12 +7130,12 @@
       <c r="D46" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E46" s="57" t="s">
+      <c r="E46" s="66" t="s">
         <v>159</v>
       </c>
-      <c r="F46" s="57"/>
-      <c r="G46" s="57"/>
-      <c r="H46" s="58"/>
+      <c r="F46" s="66"/>
+      <c r="G46" s="66"/>
+      <c r="H46" s="67"/>
     </row>
     <row r="47" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B47" s="27" t="s">
@@ -7082,12 +7147,12 @@
       <c r="D47" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E47" s="57" t="s">
+      <c r="E47" s="66" t="s">
         <v>161</v>
       </c>
-      <c r="F47" s="57"/>
-      <c r="G47" s="57"/>
-      <c r="H47" s="58"/>
+      <c r="F47" s="66"/>
+      <c r="G47" s="66"/>
+      <c r="H47" s="67"/>
     </row>
     <row r="48" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B48" s="27" t="s">
@@ -7099,12 +7164,12 @@
       <c r="D48" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E48" s="57" t="s">
+      <c r="E48" s="66" t="s">
         <v>163</v>
       </c>
-      <c r="F48" s="57"/>
-      <c r="G48" s="57"/>
-      <c r="H48" s="58"/>
+      <c r="F48" s="66"/>
+      <c r="G48" s="66"/>
+      <c r="H48" s="67"/>
     </row>
     <row r="49" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B49" s="29" t="s">
@@ -7116,65 +7181,65 @@
       <c r="D49" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E49" s="59" t="s">
+      <c r="E49" s="107" t="s">
         <v>165</v>
       </c>
-      <c r="F49" s="59"/>
-      <c r="G49" s="59"/>
-      <c r="H49" s="60"/>
+      <c r="F49" s="107"/>
+      <c r="G49" s="107"/>
+      <c r="H49" s="108"/>
     </row>
     <row r="50" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="51" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B51" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C51" s="79" t="s">
+      <c r="C51" s="101" t="s">
         <v>59</v>
       </c>
-      <c r="D51" s="80"/>
-      <c r="E51" s="80"/>
-      <c r="F51" s="80"/>
-      <c r="G51" s="80"/>
-      <c r="H51" s="81"/>
+      <c r="D51" s="102"/>
+      <c r="E51" s="102"/>
+      <c r="F51" s="102"/>
+      <c r="G51" s="102"/>
+      <c r="H51" s="103"/>
     </row>
     <row r="52" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B52" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C52" s="69" t="s">
+      <c r="C52" s="71" t="s">
         <v>174</v>
       </c>
-      <c r="D52" s="70"/>
-      <c r="E52" s="70"/>
-      <c r="F52" s="70"/>
-      <c r="G52" s="70"/>
-      <c r="H52" s="71"/>
+      <c r="D52" s="72"/>
+      <c r="E52" s="72"/>
+      <c r="F52" s="72"/>
+      <c r="G52" s="72"/>
+      <c r="H52" s="73"/>
     </row>
     <row r="53" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="46" t="s">
         <v>267</v>
       </c>
-      <c r="C53" s="69" t="s">
+      <c r="C53" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="D53" s="70"/>
-      <c r="E53" s="70"/>
-      <c r="F53" s="70"/>
-      <c r="G53" s="70"/>
-      <c r="H53" s="71"/>
+      <c r="D53" s="72"/>
+      <c r="E53" s="72"/>
+      <c r="F53" s="72"/>
+      <c r="G53" s="72"/>
+      <c r="H53" s="73"/>
     </row>
     <row r="54" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B54" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C54" s="72" t="s">
+      <c r="C54" s="84" t="s">
         <v>146</v>
       </c>
-      <c r="D54" s="72"/>
-      <c r="E54" s="72"/>
-      <c r="F54" s="72"/>
-      <c r="G54" s="72"/>
-      <c r="H54" s="73"/>
+      <c r="D54" s="84"/>
+      <c r="E54" s="84"/>
+      <c r="F54" s="84"/>
+      <c r="G54" s="84"/>
+      <c r="H54" s="85"/>
     </row>
     <row r="55" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B55" s="31" t="s">
@@ -7183,35 +7248,35 @@
       <c r="C55" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="D55" s="74" t="s">
+      <c r="D55" s="86" t="s">
         <v>175</v>
       </c>
-      <c r="E55" s="74"/>
-      <c r="F55" s="74"/>
-      <c r="G55" s="74"/>
-      <c r="H55" s="75"/>
+      <c r="E55" s="86"/>
+      <c r="F55" s="86"/>
+      <c r="G55" s="86"/>
+      <c r="H55" s="87"/>
     </row>
     <row r="56" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="76" t="s">
+      <c r="B56" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="C56" s="85"/>
-      <c r="D56" s="85"/>
-      <c r="E56" s="85"/>
-      <c r="F56" s="85"/>
-      <c r="G56" s="85"/>
-      <c r="H56" s="86"/>
+      <c r="C56" s="79"/>
+      <c r="D56" s="79"/>
+      <c r="E56" s="79"/>
+      <c r="F56" s="79"/>
+      <c r="G56" s="79"/>
+      <c r="H56" s="80"/>
     </row>
     <row r="57" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B57" s="61" t="s">
+      <c r="B57" s="104" t="s">
         <v>96</v>
       </c>
-      <c r="C57" s="62"/>
-      <c r="D57" s="62"/>
-      <c r="E57" s="62"/>
-      <c r="F57" s="62"/>
-      <c r="G57" s="62"/>
-      <c r="H57" s="63"/>
+      <c r="C57" s="105"/>
+      <c r="D57" s="105"/>
+      <c r="E57" s="105"/>
+      <c r="F57" s="105"/>
+      <c r="G57" s="105"/>
+      <c r="H57" s="106"/>
     </row>
     <row r="58" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B58" s="35" t="s">
@@ -7226,11 +7291,11 @@
       <c r="E58" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="F58" s="89" t="s">
+      <c r="F58" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="G58" s="90"/>
-      <c r="H58" s="91"/>
+      <c r="G58" s="69"/>
+      <c r="H58" s="70"/>
     </row>
     <row r="59" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B59" s="27" t="s">
@@ -7245,11 +7310,11 @@
       <c r="E59" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="F59" s="82" t="s">
+      <c r="F59" s="74" t="s">
         <v>157</v>
       </c>
-      <c r="G59" s="83"/>
-      <c r="H59" s="84"/>
+      <c r="G59" s="75"/>
+      <c r="H59" s="76"/>
     </row>
     <row r="60" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B60" s="27" t="s">
@@ -7264,11 +7329,11 @@
       <c r="E60" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="F60" s="82" t="s">
+      <c r="F60" s="74" t="s">
         <v>159</v>
       </c>
-      <c r="G60" s="83"/>
-      <c r="H60" s="84"/>
+      <c r="G60" s="75"/>
+      <c r="H60" s="76"/>
     </row>
     <row r="61" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B61" s="27" t="s">
@@ -7283,11 +7348,11 @@
       <c r="E61" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="F61" s="82" t="s">
+      <c r="F61" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="G61" s="83"/>
-      <c r="H61" s="84"/>
+      <c r="G61" s="75"/>
+      <c r="H61" s="76"/>
     </row>
     <row r="62" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B62" s="27" t="s">
@@ -7302,11 +7367,11 @@
       <c r="E62" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="F62" s="82" t="s">
+      <c r="F62" s="74" t="s">
         <v>163</v>
       </c>
-      <c r="G62" s="83"/>
-      <c r="H62" s="84"/>
+      <c r="G62" s="75"/>
+      <c r="H62" s="76"/>
     </row>
     <row r="63" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B63" s="27" t="s">
@@ -7321,22 +7386,22 @@
       <c r="E63" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="F63" s="82" t="s">
+      <c r="F63" s="74" t="s">
         <v>165</v>
       </c>
-      <c r="G63" s="83"/>
-      <c r="H63" s="84"/>
+      <c r="G63" s="75"/>
+      <c r="H63" s="76"/>
     </row>
     <row r="64" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B64" s="64" t="s">
+      <c r="B64" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="C64" s="65"/>
-      <c r="D64" s="65"/>
-      <c r="E64" s="65"/>
-      <c r="F64" s="65"/>
-      <c r="G64" s="65"/>
-      <c r="H64" s="66"/>
+      <c r="C64" s="62"/>
+      <c r="D64" s="62"/>
+      <c r="E64" s="62"/>
+      <c r="F64" s="62"/>
+      <c r="G64" s="62"/>
+      <c r="H64" s="63"/>
     </row>
     <row r="65" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B65" s="35" t="s">
@@ -7348,12 +7413,12 @@
       <c r="D65" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="E65" s="67" t="s">
+      <c r="E65" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="F65" s="67"/>
-      <c r="G65" s="67"/>
-      <c r="H65" s="68"/>
+      <c r="F65" s="64"/>
+      <c r="G65" s="64"/>
+      <c r="H65" s="65"/>
     </row>
     <row r="66" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B66" s="27" t="s">
@@ -7365,12 +7430,12 @@
       <c r="D66" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E66" s="57" t="s">
+      <c r="E66" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="F66" s="57"/>
-      <c r="G66" s="57"/>
-      <c r="H66" s="58"/>
+      <c r="F66" s="66"/>
+      <c r="G66" s="66"/>
+      <c r="H66" s="67"/>
     </row>
     <row r="67" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B67" s="27" t="s">
@@ -7382,12 +7447,12 @@
       <c r="D67" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E67" s="57" t="s">
+      <c r="E67" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="F67" s="57"/>
-      <c r="G67" s="57"/>
-      <c r="H67" s="58"/>
+      <c r="F67" s="66"/>
+      <c r="G67" s="66"/>
+      <c r="H67" s="67"/>
     </row>
     <row r="68" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B68" s="27" t="s">
@@ -7399,12 +7464,12 @@
       <c r="D68" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E68" s="57" t="s">
+      <c r="E68" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="F68" s="57"/>
-      <c r="G68" s="57"/>
-      <c r="H68" s="58"/>
+      <c r="F68" s="66"/>
+      <c r="G68" s="66"/>
+      <c r="H68" s="67"/>
     </row>
     <row r="69" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B69" s="29" t="s">
@@ -7416,65 +7481,65 @@
       <c r="D69" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E69" s="59" t="s">
+      <c r="E69" s="107" t="s">
         <v>105</v>
       </c>
-      <c r="F69" s="59"/>
-      <c r="G69" s="59"/>
-      <c r="H69" s="60"/>
+      <c r="F69" s="107"/>
+      <c r="G69" s="107"/>
+      <c r="H69" s="108"/>
     </row>
     <row r="70" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="71" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B71" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C71" s="87" t="s">
+      <c r="C71" s="77" t="s">
         <v>76</v>
       </c>
-      <c r="D71" s="87"/>
-      <c r="E71" s="87"/>
-      <c r="F71" s="87"/>
-      <c r="G71" s="87"/>
-      <c r="H71" s="88"/>
+      <c r="D71" s="77"/>
+      <c r="E71" s="77"/>
+      <c r="F71" s="77"/>
+      <c r="G71" s="77"/>
+      <c r="H71" s="109"/>
     </row>
     <row r="72" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B72" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C72" s="72" t="s">
+      <c r="C72" s="84" t="s">
         <v>177</v>
       </c>
-      <c r="D72" s="72"/>
-      <c r="E72" s="72"/>
-      <c r="F72" s="72"/>
-      <c r="G72" s="72"/>
-      <c r="H72" s="73"/>
+      <c r="D72" s="84"/>
+      <c r="E72" s="84"/>
+      <c r="F72" s="84"/>
+      <c r="G72" s="84"/>
+      <c r="H72" s="85"/>
     </row>
     <row r="73" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B73" s="46" t="s">
         <v>267</v>
       </c>
-      <c r="C73" s="69" t="s">
+      <c r="C73" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="D73" s="70"/>
-      <c r="E73" s="70"/>
-      <c r="F73" s="70"/>
-      <c r="G73" s="70"/>
-      <c r="H73" s="71"/>
+      <c r="D73" s="72"/>
+      <c r="E73" s="72"/>
+      <c r="F73" s="72"/>
+      <c r="G73" s="72"/>
+      <c r="H73" s="73"/>
     </row>
     <row r="74" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B74" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C74" s="72" t="s">
+      <c r="C74" s="84" t="s">
         <v>167</v>
       </c>
-      <c r="D74" s="72"/>
-      <c r="E74" s="72"/>
-      <c r="F74" s="72"/>
-      <c r="G74" s="72"/>
-      <c r="H74" s="73"/>
+      <c r="D74" s="84"/>
+      <c r="E74" s="84"/>
+      <c r="F74" s="84"/>
+      <c r="G74" s="84"/>
+      <c r="H74" s="85"/>
     </row>
     <row r="75" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B75" s="31" t="s">
@@ -7483,35 +7548,35 @@
       <c r="C75" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="D75" s="74" t="s">
+      <c r="D75" s="86" t="s">
         <v>178</v>
       </c>
-      <c r="E75" s="74"/>
-      <c r="F75" s="74"/>
-      <c r="G75" s="74"/>
-      <c r="H75" s="75"/>
+      <c r="E75" s="86"/>
+      <c r="F75" s="86"/>
+      <c r="G75" s="86"/>
+      <c r="H75" s="87"/>
     </row>
     <row r="76" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="76" t="s">
+      <c r="B76" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="C76" s="85"/>
-      <c r="D76" s="85"/>
-      <c r="E76" s="85"/>
-      <c r="F76" s="85"/>
-      <c r="G76" s="85"/>
-      <c r="H76" s="86"/>
+      <c r="C76" s="79"/>
+      <c r="D76" s="79"/>
+      <c r="E76" s="79"/>
+      <c r="F76" s="79"/>
+      <c r="G76" s="79"/>
+      <c r="H76" s="80"/>
     </row>
     <row r="77" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B77" s="108" t="s">
+      <c r="B77" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="C77" s="109"/>
-      <c r="D77" s="109"/>
-      <c r="E77" s="109"/>
-      <c r="F77" s="109"/>
-      <c r="G77" s="109"/>
-      <c r="H77" s="110"/>
+      <c r="C77" s="59"/>
+      <c r="D77" s="59"/>
+      <c r="E77" s="59"/>
+      <c r="F77" s="59"/>
+      <c r="G77" s="59"/>
+      <c r="H77" s="60"/>
     </row>
     <row r="78" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B78" s="35" t="s">
@@ -7526,11 +7591,11 @@
       <c r="E78" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="F78" s="89" t="s">
+      <c r="F78" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="G78" s="90"/>
-      <c r="H78" s="91"/>
+      <c r="G78" s="69"/>
+      <c r="H78" s="70"/>
     </row>
     <row r="79" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B79" s="27" t="s">
@@ -7545,11 +7610,11 @@
       <c r="E79" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="F79" s="82" t="s">
+      <c r="F79" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="G79" s="83"/>
-      <c r="H79" s="84"/>
+      <c r="G79" s="75"/>
+      <c r="H79" s="76"/>
     </row>
     <row r="80" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B80" s="28" t="s">
@@ -7564,11 +7629,11 @@
       <c r="E80" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="F80" s="69" t="s">
+      <c r="F80" s="71" t="s">
         <v>261</v>
       </c>
-      <c r="G80" s="70"/>
-      <c r="H80" s="71"/>
+      <c r="G80" s="72"/>
+      <c r="H80" s="73"/>
     </row>
     <row r="81" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B81" s="28" t="s">
@@ -7583,11 +7648,11 @@
       <c r="E81" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="F81" s="69" t="s">
+      <c r="F81" s="71" t="s">
         <v>262</v>
       </c>
-      <c r="G81" s="70"/>
-      <c r="H81" s="71"/>
+      <c r="G81" s="72"/>
+      <c r="H81" s="73"/>
     </row>
     <row r="82" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B82" s="27" t="s">
@@ -7602,11 +7667,11 @@
       <c r="E82" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="F82" s="82" t="s">
+      <c r="F82" s="74" t="s">
         <v>158</v>
       </c>
-      <c r="G82" s="83"/>
-      <c r="H82" s="84"/>
+      <c r="G82" s="75"/>
+      <c r="H82" s="76"/>
     </row>
     <row r="83" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B83" s="27" t="s">
@@ -7621,11 +7686,11 @@
       <c r="E83" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="F83" s="82" t="s">
+      <c r="F83" s="74" t="s">
         <v>160</v>
       </c>
-      <c r="G83" s="83"/>
-      <c r="H83" s="84"/>
+      <c r="G83" s="75"/>
+      <c r="H83" s="76"/>
     </row>
     <row r="84" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B84" s="27" t="s">
@@ -7640,11 +7705,11 @@
       <c r="E84" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="F84" s="82" t="s">
+      <c r="F84" s="74" t="s">
         <v>162</v>
       </c>
-      <c r="G84" s="83"/>
-      <c r="H84" s="84"/>
+      <c r="G84" s="75"/>
+      <c r="H84" s="76"/>
     </row>
     <row r="85" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B85" s="27" t="s">
@@ -7659,22 +7724,22 @@
       <c r="E85" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="F85" s="82" t="s">
+      <c r="F85" s="74" t="s">
         <v>164</v>
       </c>
-      <c r="G85" s="83"/>
-      <c r="H85" s="84"/>
+      <c r="G85" s="75"/>
+      <c r="H85" s="76"/>
     </row>
     <row r="86" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B86" s="50" t="s">
+      <c r="B86" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="C86" s="51"/>
-      <c r="D86" s="51"/>
-      <c r="E86" s="51"/>
-      <c r="F86" s="51"/>
-      <c r="G86" s="51"/>
-      <c r="H86" s="52"/>
+      <c r="C86" s="52"/>
+      <c r="D86" s="52"/>
+      <c r="E86" s="52"/>
+      <c r="F86" s="52"/>
+      <c r="G86" s="52"/>
+      <c r="H86" s="53"/>
     </row>
     <row r="87" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B87" s="35" t="s">
@@ -7686,12 +7751,12 @@
       <c r="D87" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="E87" s="67" t="s">
+      <c r="E87" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="F87" s="67"/>
-      <c r="G87" s="67"/>
-      <c r="H87" s="68"/>
+      <c r="F87" s="64"/>
+      <c r="G87" s="64"/>
+      <c r="H87" s="65"/>
     </row>
     <row r="88" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B88" s="27" t="s">
@@ -7703,12 +7768,12 @@
       <c r="D88" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E88" s="57" t="s">
+      <c r="E88" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="F88" s="57"/>
-      <c r="G88" s="57"/>
-      <c r="H88" s="58"/>
+      <c r="F88" s="66"/>
+      <c r="G88" s="66"/>
+      <c r="H88" s="67"/>
     </row>
     <row r="89" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B89" s="27" t="s">
@@ -7720,12 +7785,12 @@
       <c r="D89" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E89" s="57" t="s">
+      <c r="E89" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="F89" s="57"/>
-      <c r="G89" s="57"/>
-      <c r="H89" s="58"/>
+      <c r="F89" s="66"/>
+      <c r="G89" s="66"/>
+      <c r="H89" s="67"/>
     </row>
     <row r="90" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B90" s="27" t="s">
@@ -7737,12 +7802,12 @@
       <c r="D90" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E90" s="57" t="s">
+      <c r="E90" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="F90" s="57"/>
-      <c r="G90" s="57"/>
-      <c r="H90" s="58"/>
+      <c r="F90" s="66"/>
+      <c r="G90" s="66"/>
+      <c r="H90" s="67"/>
     </row>
     <row r="91" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B91" s="29" t="s">
@@ -7754,65 +7819,65 @@
       <c r="D91" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E91" s="59" t="s">
+      <c r="E91" s="107" t="s">
         <v>105</v>
       </c>
-      <c r="F91" s="59"/>
-      <c r="G91" s="59"/>
-      <c r="H91" s="60"/>
+      <c r="F91" s="107"/>
+      <c r="G91" s="107"/>
+      <c r="H91" s="108"/>
     </row>
     <row r="92" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="93" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B93" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C93" s="79" t="s">
+      <c r="C93" s="101" t="s">
         <v>81</v>
       </c>
-      <c r="D93" s="80"/>
-      <c r="E93" s="80"/>
-      <c r="F93" s="80"/>
-      <c r="G93" s="80"/>
-      <c r="H93" s="81"/>
+      <c r="D93" s="102"/>
+      <c r="E93" s="102"/>
+      <c r="F93" s="102"/>
+      <c r="G93" s="102"/>
+      <c r="H93" s="103"/>
     </row>
     <row r="94" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B94" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C94" s="69" t="s">
+      <c r="C94" s="71" t="s">
         <v>180</v>
       </c>
-      <c r="D94" s="70"/>
-      <c r="E94" s="70"/>
-      <c r="F94" s="70"/>
-      <c r="G94" s="70"/>
-      <c r="H94" s="71"/>
+      <c r="D94" s="72"/>
+      <c r="E94" s="72"/>
+      <c r="F94" s="72"/>
+      <c r="G94" s="72"/>
+      <c r="H94" s="73"/>
     </row>
     <row r="95" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B95" s="46" t="s">
         <v>267</v>
       </c>
-      <c r="C95" s="69" t="s">
+      <c r="C95" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="D95" s="70"/>
-      <c r="E95" s="70"/>
-      <c r="F95" s="70"/>
-      <c r="G95" s="70"/>
-      <c r="H95" s="71"/>
+      <c r="D95" s="72"/>
+      <c r="E95" s="72"/>
+      <c r="F95" s="72"/>
+      <c r="G95" s="72"/>
+      <c r="H95" s="73"/>
     </row>
     <row r="96" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B96" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C96" s="72" t="s">
+      <c r="C96" s="84" t="s">
         <v>167</v>
       </c>
-      <c r="D96" s="72"/>
-      <c r="E96" s="72"/>
-      <c r="F96" s="72"/>
-      <c r="G96" s="72"/>
-      <c r="H96" s="73"/>
+      <c r="D96" s="84"/>
+      <c r="E96" s="84"/>
+      <c r="F96" s="84"/>
+      <c r="G96" s="84"/>
+      <c r="H96" s="85"/>
     </row>
     <row r="97" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B97" s="31" t="s">
@@ -7821,35 +7886,35 @@
       <c r="C97" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="D97" s="74" t="s">
+      <c r="D97" s="86" t="s">
         <v>181</v>
       </c>
-      <c r="E97" s="74"/>
-      <c r="F97" s="74"/>
-      <c r="G97" s="74"/>
-      <c r="H97" s="75"/>
+      <c r="E97" s="86"/>
+      <c r="F97" s="86"/>
+      <c r="G97" s="86"/>
+      <c r="H97" s="87"/>
     </row>
     <row r="98" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B98" s="76" t="s">
+      <c r="B98" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="C98" s="77"/>
-      <c r="D98" s="77"/>
-      <c r="E98" s="77"/>
-      <c r="F98" s="77"/>
-      <c r="G98" s="77"/>
-      <c r="H98" s="78"/>
+      <c r="C98" s="110"/>
+      <c r="D98" s="110"/>
+      <c r="E98" s="110"/>
+      <c r="F98" s="110"/>
+      <c r="G98" s="110"/>
+      <c r="H98" s="111"/>
     </row>
     <row r="99" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B99" s="61" t="s">
+      <c r="B99" s="104" t="s">
         <v>96</v>
       </c>
-      <c r="C99" s="62"/>
-      <c r="D99" s="62"/>
-      <c r="E99" s="62"/>
-      <c r="F99" s="62"/>
-      <c r="G99" s="62"/>
-      <c r="H99" s="63"/>
+      <c r="C99" s="105"/>
+      <c r="D99" s="105"/>
+      <c r="E99" s="105"/>
+      <c r="F99" s="105"/>
+      <c r="G99" s="105"/>
+      <c r="H99" s="106"/>
     </row>
     <row r="100" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B100" s="35" t="s">
@@ -7864,11 +7929,11 @@
       <c r="E100" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="F100" s="89" t="s">
+      <c r="F100" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="G100" s="90"/>
-      <c r="H100" s="91"/>
+      <c r="G100" s="69"/>
+      <c r="H100" s="70"/>
     </row>
     <row r="101" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B101" s="27" t="s">
@@ -7883,11 +7948,11 @@
       <c r="E101" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="F101" s="82" t="s">
+      <c r="F101" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="G101" s="83"/>
-      <c r="H101" s="84"/>
+      <c r="G101" s="75"/>
+      <c r="H101" s="76"/>
     </row>
     <row r="102" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B102" s="28" t="s">
@@ -7902,22 +7967,22 @@
       <c r="E102" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="F102" s="69" t="s">
+      <c r="F102" s="71" t="s">
         <v>157</v>
       </c>
-      <c r="G102" s="70"/>
-      <c r="H102" s="71"/>
+      <c r="G102" s="72"/>
+      <c r="H102" s="73"/>
     </row>
     <row r="103" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B103" s="64" t="s">
+      <c r="B103" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="C103" s="65"/>
-      <c r="D103" s="65"/>
-      <c r="E103" s="65"/>
-      <c r="F103" s="65"/>
-      <c r="G103" s="65"/>
-      <c r="H103" s="66"/>
+      <c r="C103" s="62"/>
+      <c r="D103" s="62"/>
+      <c r="E103" s="62"/>
+      <c r="F103" s="62"/>
+      <c r="G103" s="62"/>
+      <c r="H103" s="63"/>
     </row>
     <row r="104" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B104" s="35" t="s">
@@ -7929,12 +7994,12 @@
       <c r="D104" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="E104" s="67" t="s">
+      <c r="E104" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="F104" s="67"/>
-      <c r="G104" s="67"/>
-      <c r="H104" s="68"/>
+      <c r="F104" s="64"/>
+      <c r="G104" s="64"/>
+      <c r="H104" s="65"/>
     </row>
     <row r="105" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B105" s="27" t="s">
@@ -7946,12 +8011,12 @@
       <c r="D105" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E105" s="57" t="s">
+      <c r="E105" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="F105" s="57"/>
-      <c r="G105" s="57"/>
-      <c r="H105" s="58"/>
+      <c r="F105" s="66"/>
+      <c r="G105" s="66"/>
+      <c r="H105" s="67"/>
     </row>
     <row r="106" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B106" s="27" t="s">
@@ -7963,12 +8028,12 @@
       <c r="D106" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E106" s="57" t="s">
+      <c r="E106" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="F106" s="57"/>
-      <c r="G106" s="57"/>
-      <c r="H106" s="58"/>
+      <c r="F106" s="66"/>
+      <c r="G106" s="66"/>
+      <c r="H106" s="67"/>
     </row>
     <row r="107" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B107" s="27" t="s">
@@ -7980,12 +8045,12 @@
       <c r="D107" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E107" s="57" t="s">
+      <c r="E107" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="F107" s="57"/>
-      <c r="G107" s="57"/>
-      <c r="H107" s="58"/>
+      <c r="F107" s="66"/>
+      <c r="G107" s="66"/>
+      <c r="H107" s="67"/>
     </row>
     <row r="108" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B108" s="29" t="s">
@@ -7997,80 +8062,37 @@
       <c r="D108" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E108" s="59" t="s">
+      <c r="E108" s="107" t="s">
         <v>105</v>
       </c>
-      <c r="F108" s="59"/>
-      <c r="G108" s="59"/>
-      <c r="H108" s="60"/>
+      <c r="F108" s="107"/>
+      <c r="G108" s="107"/>
+      <c r="H108" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="102">
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:H8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="B43:H43"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="C34:H34"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="D37:H37"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="C35:H35"/>
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="E44:H44"/>
-    <mergeCell ref="E45:H45"/>
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="E47:H47"/>
-    <mergeCell ref="E48:H48"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="C52:H52"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="D55:H55"/>
-    <mergeCell ref="B56:H56"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="E69:H69"/>
-    <mergeCell ref="F58:H58"/>
-    <mergeCell ref="F59:H59"/>
-    <mergeCell ref="F60:H60"/>
-    <mergeCell ref="F61:H61"/>
-    <mergeCell ref="F62:H62"/>
-    <mergeCell ref="F63:H63"/>
-    <mergeCell ref="B64:H64"/>
-    <mergeCell ref="E65:H65"/>
-    <mergeCell ref="E66:H66"/>
-    <mergeCell ref="E67:H67"/>
-    <mergeCell ref="E68:H68"/>
+    <mergeCell ref="E106:H106"/>
+    <mergeCell ref="E107:H107"/>
+    <mergeCell ref="E108:H108"/>
+    <mergeCell ref="F100:H100"/>
+    <mergeCell ref="F101:H101"/>
+    <mergeCell ref="F102:H102"/>
+    <mergeCell ref="B103:H103"/>
+    <mergeCell ref="E104:H104"/>
+    <mergeCell ref="E105:H105"/>
+    <mergeCell ref="B99:H99"/>
+    <mergeCell ref="B86:H86"/>
+    <mergeCell ref="E87:H87"/>
+    <mergeCell ref="E88:H88"/>
+    <mergeCell ref="E89:H89"/>
+    <mergeCell ref="E90:H90"/>
+    <mergeCell ref="E91:H91"/>
+    <mergeCell ref="C93:H93"/>
+    <mergeCell ref="C94:H94"/>
+    <mergeCell ref="C96:H96"/>
+    <mergeCell ref="D97:H97"/>
+    <mergeCell ref="B98:H98"/>
+    <mergeCell ref="C95:H95"/>
     <mergeCell ref="F85:H85"/>
     <mergeCell ref="C71:H71"/>
     <mergeCell ref="C72:H72"/>
@@ -8086,28 +8108,71 @@
     <mergeCell ref="F80:H80"/>
     <mergeCell ref="F81:H81"/>
     <mergeCell ref="C73:H73"/>
-    <mergeCell ref="B99:H99"/>
-    <mergeCell ref="B86:H86"/>
-    <mergeCell ref="E87:H87"/>
-    <mergeCell ref="E88:H88"/>
-    <mergeCell ref="E89:H89"/>
-    <mergeCell ref="E90:H90"/>
-    <mergeCell ref="E91:H91"/>
-    <mergeCell ref="C93:H93"/>
-    <mergeCell ref="C94:H94"/>
-    <mergeCell ref="C96:H96"/>
-    <mergeCell ref="D97:H97"/>
-    <mergeCell ref="B98:H98"/>
-    <mergeCell ref="C95:H95"/>
-    <mergeCell ref="E106:H106"/>
-    <mergeCell ref="E107:H107"/>
-    <mergeCell ref="E108:H108"/>
-    <mergeCell ref="F100:H100"/>
-    <mergeCell ref="F101:H101"/>
-    <mergeCell ref="F102:H102"/>
-    <mergeCell ref="B103:H103"/>
-    <mergeCell ref="E104:H104"/>
-    <mergeCell ref="E105:H105"/>
+    <mergeCell ref="E69:H69"/>
+    <mergeCell ref="F58:H58"/>
+    <mergeCell ref="F59:H59"/>
+    <mergeCell ref="F60:H60"/>
+    <mergeCell ref="F61:H61"/>
+    <mergeCell ref="F62:H62"/>
+    <mergeCell ref="F63:H63"/>
+    <mergeCell ref="B64:H64"/>
+    <mergeCell ref="E65:H65"/>
+    <mergeCell ref="E66:H66"/>
+    <mergeCell ref="E67:H67"/>
+    <mergeCell ref="E68:H68"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="E47:H47"/>
+    <mergeCell ref="E48:H48"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="C52:H52"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="D55:H55"/>
+    <mergeCell ref="B56:H56"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="B43:H43"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="D37:H37"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="C35:H35"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="D12:H12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
